--- a/docs/vaccination_signature_curation_template.xlsx
+++ b/docs/vaccination_signature_curation_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9947"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="curation sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="373">
   <si>
     <t xml:space="preserve">       </t>
   </si>
@@ -293,9 +293,6 @@
     <t>down</t>
   </si>
   <si>
-    <t>CL:0000906 (activated CD8-positive, alpha-beta T cell)</t>
-  </si>
-  <si>
     <t>VO:0004808 (APSV Wetvax)</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>Circular Dichroism</t>
   </si>
   <si>
-    <t>CL:0000904 (central memory CD4-positive, alpha-beta T cell)</t>
-  </si>
-  <si>
     <t>VO:0003150 (Heptatitis B surface antigen vaccine (HBsAg))</t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>ncbi_taxid:1313 (Streptococcus pneumoniae)</t>
   </si>
   <si>
-    <t>Flow Cytometry</t>
-  </si>
-  <si>
     <t>CL:0000037 (hematopoietic stem cell)</t>
   </si>
   <si>
@@ -683,9 +674,6 @@
     <t>Line Probe Assay</t>
   </si>
   <si>
-    <t>CL:0000940 (mucosal invariant T cell)</t>
-  </si>
-  <si>
     <t>VO:0000088 (Pneumovax 23)</t>
   </si>
   <si>
@@ -801,9 +789,6 @@
   </si>
   <si>
     <t>Neutralizing Antibody Titer Assay</t>
-  </si>
-  <si>
-    <t>CL:0000784 (plasmacytoid dendric cell)</t>
   </si>
   <si>
     <t>VO:0003134 (YF-17D vaccine)</t>
@@ -1310,16 +1295,50 @@
   <si>
     <t>Can be used to record the number of doses (e.g. “2 doses”).</t>
   </si>
+  <si>
+    <t>differentially expressed</t>
+  </si>
+  <si>
+    <t>CL:0000784 (plasmacytoid dendritic cell)</t>
+  </si>
+  <si>
+    <t>CL:0000897 (CD4-positive, alpha-beta memory T cell)</t>
+  </si>
+  <si>
+    <t>CL:0000898 (naive T cell)</t>
+  </si>
+  <si>
+    <t>CL:0000946 (antibody secreting cell)</t>
+  </si>
+  <si>
+    <t>CL:2000000 (epidermal melanocyte)</t>
+  </si>
+  <si>
+    <t>CL_0000981 (double negative memory b cell)</t>
+  </si>
+  <si>
+    <t>UBERON:0002097 (skin of body)</t>
+  </si>
+  <si>
+    <t>clinical laboratory test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1363,11 +1382,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1392,12 +1406,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1442,6 +1450,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1546,16 +1567,16 @@
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1573,125 +1594,125 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1978,144 +1999,144 @@
   </sheetPr>
   <dimension ref="A1:AP285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.703125" customWidth="1"/>
-    <col min="2" max="2" width="28.64453125" customWidth="1"/>
-    <col min="3" max="3" width="48.5859375" customWidth="1"/>
-    <col min="4" max="6" width="29.703125" customWidth="1"/>
-    <col min="7" max="7" width="17.1171875" customWidth="1"/>
-    <col min="8" max="8" width="35.1171875" customWidth="1"/>
-    <col min="9" max="9" width="22.5859375" customWidth="1"/>
-    <col min="10" max="10" width="29.1171875" customWidth="1"/>
-    <col min="11" max="11" width="46.41015625" customWidth="1"/>
-    <col min="12" max="12" width="18.5859375" customWidth="1"/>
-    <col min="13" max="13" width="20.703125" customWidth="1"/>
-    <col min="14" max="14" width="42.1171875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="42.140625" customWidth="1"/>
     <col min="15" max="15" width="76" customWidth="1"/>
-    <col min="16" max="16" width="41.703125" customWidth="1"/>
-    <col min="17" max="17" width="26.29296875" customWidth="1"/>
-    <col min="18" max="18" width="18.41015625" customWidth="1"/>
-    <col min="19" max="19" width="48.29296875" customWidth="1"/>
-    <col min="20" max="20" width="34.29296875" customWidth="1"/>
+    <col min="16" max="16" width="41.7109375" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="48.28515625" customWidth="1"/>
+    <col min="20" max="20" width="34.28515625" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
-    <col min="22" max="22" width="50.9375" customWidth="1"/>
-    <col min="23" max="23" width="46.76171875" customWidth="1"/>
-    <col min="24" max="24" width="31.1171875" customWidth="1"/>
-    <col min="25" max="25" width="18.5859375" customWidth="1"/>
-    <col min="26" max="26" width="14.87890625" customWidth="1"/>
-    <col min="27" max="27" width="15.9375" customWidth="1"/>
-    <col min="28" max="28" width="28.87890625" customWidth="1"/>
-    <col min="29" max="29" width="17.87890625" customWidth="1"/>
+    <col min="22" max="22" width="51" customWidth="1"/>
+    <col min="23" max="23" width="46.7109375" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" customWidth="1"/>
     <col min="30" max="30" width="73" customWidth="1"/>
-    <col min="31" max="31" width="65.87890625" customWidth="1"/>
-    <col min="32" max="32" width="92.87890625" customWidth="1"/>
-    <col min="33" max="42" width="29.703125" customWidth="1"/>
+    <col min="31" max="31" width="65.85546875" customWidth="1"/>
+    <col min="32" max="32" width="92.85546875" customWidth="1"/>
+    <col min="33" max="42" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="17" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="2"/>
@@ -2129,49 +2150,49 @@
       <c r="AP1" s="2"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
@@ -2183,95 +2204,95 @@
       <c r="AP2" s="3"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="39" t="s">
+      <c r="T3" s="36"/>
+      <c r="U3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40" t="s">
+      <c r="W3" s="36"/>
+      <c r="X3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="39" t="s">
+      <c r="AA3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="39" t="s">
+      <c r="AB3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="39" t="s">
+      <c r="AC3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="39" t="s">
+      <c r="AD3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="36" t="s">
+      <c r="AE3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AF3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="35" t="s">
+      <c r="AG3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="AH3" s="4"/>
@@ -2285,103 +2306,103 @@
       <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="X4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="39" t="s">
+      <c r="AB4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AC4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="39" t="s">
+      <c r="AD4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="35" t="s">
+      <c r="AG4" s="31" t="s">
         <v>43</v>
       </c>
       <c r="AH4" s="4"/>
@@ -2395,41 +2416,41 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="45"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="41"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -2441,41 +2462,41 @@
       <c r="AP5" s="4"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="45"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="41"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
@@ -2486,313 +2507,313 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="1:42" s="20" customFormat="1" ht="80.45" customHeight="1" thickBot="1">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:42" s="16" customFormat="1" ht="80.45" customHeight="1" thickBot="1">
+      <c r="A7" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="V7" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="W7" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="X7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z7" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA7" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB7" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+    </row>
+    <row r="8" spans="1:42" s="16" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="48" t="s">
+      <c r="G8" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="V8" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="X8" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y8" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z8" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA8" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB8" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC8" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+    </row>
+    <row r="9" spans="1:42" s="16" customFormat="1" ht="134.25" customHeight="1" thickBot="1">
+      <c r="A9" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="W9" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="V7" s="48" t="s">
+      <c r="X9" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="W7" s="48" t="s">
+      <c r="Y9" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="X7" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="48" t="s">
+      <c r="Z9" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA9" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="Z7" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA7" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB7" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC7" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD7" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE7" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF7" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-    </row>
-    <row r="8" spans="1:42" s="20" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A8" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="O8" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="R8" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="S8" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="T8" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="U8" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="V8" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="W8" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="X8" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y8" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z8" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA8" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB8" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC8" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-    </row>
-    <row r="9" spans="1:42" s="20" customFormat="1" ht="134.25" customHeight="1" thickBot="1">
-      <c r="A9" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="O9" s="49" t="s">
+      <c r="AB9" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="AC9" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="Q9" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="R9" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="S9" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="T9" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="U9" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="V9" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="W9" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="X9" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y9" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z9" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA9" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB9" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC9" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-    </row>
-    <row r="10" spans="1:42" ht="17.350000000000001">
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+    </row>
+    <row r="10" spans="1:42" ht="18">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -2822,7 +2843,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="46"/>
+      <c r="AD10" s="42"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="5"/>
@@ -2836,7 +2857,7 @@
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
     </row>
-    <row r="11" spans="1:42" ht="17.350000000000001">
+    <row r="11" spans="1:42" ht="18">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -2866,7 +2887,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
-      <c r="AD11" s="46"/>
+      <c r="AD11" s="42"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="5"/>
@@ -2880,7 +2901,7 @@
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
     </row>
-    <row r="12" spans="1:42" ht="17.350000000000001">
+    <row r="12" spans="1:42" ht="18">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -2910,7 +2931,7 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
-      <c r="AD12" s="46"/>
+      <c r="AD12" s="42"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="5"/>
@@ -2924,7 +2945,7 @@
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
     </row>
-    <row r="13" spans="1:42" ht="17.350000000000001">
+    <row r="13" spans="1:42" ht="18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -2954,7 +2975,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
-      <c r="AD13" s="46"/>
+      <c r="AD13" s="42"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="11"/>
       <c r="AG13" s="5"/>
@@ -2968,7 +2989,7 @@
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
     </row>
-    <row r="14" spans="1:42" ht="17.350000000000001">
+    <row r="14" spans="1:42" ht="18">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -2998,7 +3019,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
-      <c r="AD14" s="46"/>
+      <c r="AD14" s="42"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="5"/>
@@ -3012,7 +3033,7 @@
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
     </row>
-    <row r="15" spans="1:42" ht="17.350000000000001">
+    <row r="15" spans="1:42" ht="18">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -3042,7 +3063,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
-      <c r="AD15" s="46"/>
+      <c r="AD15" s="42"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="5"/>
@@ -3056,7 +3077,7 @@
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
     </row>
-    <row r="16" spans="1:42" ht="17.350000000000001">
+    <row r="16" spans="1:42" ht="18">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -3086,7 +3107,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="46"/>
+      <c r="AD16" s="42"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="5"/>
@@ -3100,7 +3121,7 @@
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
     </row>
-    <row r="17" spans="1:42" ht="17.350000000000001">
+    <row r="17" spans="1:42" ht="18">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -3130,7 +3151,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
-      <c r="AD17" s="46"/>
+      <c r="AD17" s="42"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="5"/>
@@ -3144,7 +3165,7 @@
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
     </row>
-    <row r="18" spans="1:42" ht="17.350000000000001">
+    <row r="18" spans="1:42" ht="18">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -3174,7 +3195,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
-      <c r="AD18" s="46"/>
+      <c r="AD18" s="42"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="5"/>
@@ -3188,7 +3209,7 @@
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
     </row>
-    <row r="19" spans="1:42" ht="17.350000000000001">
+    <row r="19" spans="1:42" ht="18">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -3218,7 +3239,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
-      <c r="AD19" s="46"/>
+      <c r="AD19" s="42"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="5"/>
@@ -3232,7 +3253,7 @@
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
     </row>
-    <row r="20" spans="1:42" ht="17.350000000000001">
+    <row r="20" spans="1:42" ht="18">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -3262,7 +3283,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="46"/>
+      <c r="AD20" s="42"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="5"/>
@@ -3276,7 +3297,7 @@
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
     </row>
-    <row r="21" spans="1:42" ht="17.350000000000001">
+    <row r="21" spans="1:42" ht="18">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -3306,7 +3327,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
-      <c r="AD21" s="46"/>
+      <c r="AD21" s="42"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="5"/>
@@ -3320,7 +3341,7 @@
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
     </row>
-    <row r="22" spans="1:42" ht="17.350000000000001">
+    <row r="22" spans="1:42" ht="18">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -3350,7 +3371,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
-      <c r="AD22" s="46"/>
+      <c r="AD22" s="42"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="5"/>
@@ -3364,7 +3385,7 @@
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
     </row>
-    <row r="23" spans="1:42" ht="17.350000000000001">
+    <row r="23" spans="1:42" ht="18">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -3394,7 +3415,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
-      <c r="AD23" s="46"/>
+      <c r="AD23" s="42"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="5"/>
@@ -3408,7 +3429,7 @@
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
     </row>
-    <row r="24" spans="1:42" ht="17.350000000000001">
+    <row r="24" spans="1:42" ht="18">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -3438,7 +3459,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
-      <c r="AD24" s="46"/>
+      <c r="AD24" s="42"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="5"/>
@@ -3452,7 +3473,7 @@
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
     </row>
-    <row r="25" spans="1:42" ht="17.350000000000001">
+    <row r="25" spans="1:42" ht="18">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -3482,7 +3503,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
-      <c r="AD25" s="46"/>
+      <c r="AD25" s="42"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="5"/>
@@ -3496,7 +3517,7 @@
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
     </row>
-    <row r="26" spans="1:42" ht="17.350000000000001">
+    <row r="26" spans="1:42" ht="18">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -3526,7 +3547,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
-      <c r="AD26" s="46"/>
+      <c r="AD26" s="42"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="5"/>
@@ -3540,7 +3561,7 @@
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
     </row>
-    <row r="27" spans="1:42" ht="17.350000000000001">
+    <row r="27" spans="1:42" ht="18">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -3570,7 +3591,7 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
-      <c r="AD27" s="46"/>
+      <c r="AD27" s="42"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="5"/>
@@ -3584,7 +3605,7 @@
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
     </row>
-    <row r="28" spans="1:42" ht="17.350000000000001">
+    <row r="28" spans="1:42" ht="18">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -3614,7 +3635,7 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
-      <c r="AD28" s="46"/>
+      <c r="AD28" s="42"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="5"/>
@@ -3628,7 +3649,7 @@
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
     </row>
-    <row r="29" spans="1:42" ht="17.350000000000001">
+    <row r="29" spans="1:42" ht="18">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -3658,7 +3679,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
-      <c r="AD29" s="46"/>
+      <c r="AD29" s="42"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="5"/>
@@ -3672,7 +3693,7 @@
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
     </row>
-    <row r="30" spans="1:42" ht="17.350000000000001">
+    <row r="30" spans="1:42" ht="18">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -3702,7 +3723,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
-      <c r="AD30" s="46"/>
+      <c r="AD30" s="42"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="5"/>
@@ -3716,7 +3737,7 @@
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
     </row>
-    <row r="31" spans="1:42" ht="17.350000000000001">
+    <row r="31" spans="1:42" ht="18">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -3746,7 +3767,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
-      <c r="AD31" s="46"/>
+      <c r="AD31" s="42"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="5"/>
@@ -3760,7 +3781,7 @@
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
     </row>
-    <row r="32" spans="1:42" ht="17.350000000000001">
+    <row r="32" spans="1:42" ht="18">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -3790,7 +3811,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
-      <c r="AD32" s="46"/>
+      <c r="AD32" s="42"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="5"/>
@@ -3804,7 +3825,7 @@
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
     </row>
-    <row r="33" spans="1:42" ht="17.350000000000001">
+    <row r="33" spans="1:42" ht="18">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -3834,7 +3855,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
-      <c r="AD33" s="46"/>
+      <c r="AD33" s="42"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="5"/>
@@ -3848,7 +3869,7 @@
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
     </row>
-    <row r="34" spans="1:42" ht="17.350000000000001">
+    <row r="34" spans="1:42" ht="18">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -3878,7 +3899,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
-      <c r="AD34" s="46"/>
+      <c r="AD34" s="42"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="5"/>
@@ -3892,7 +3913,7 @@
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
     </row>
-    <row r="35" spans="1:42" ht="17.350000000000001">
+    <row r="35" spans="1:42" ht="18">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -3922,7 +3943,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
-      <c r="AD35" s="46"/>
+      <c r="AD35" s="42"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="5"/>
@@ -3936,7 +3957,7 @@
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
     </row>
-    <row r="36" spans="1:42" ht="17.350000000000001">
+    <row r="36" spans="1:42" ht="18">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -3966,7 +3987,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
-      <c r="AD36" s="46"/>
+      <c r="AD36" s="42"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="5"/>
@@ -3980,7 +4001,7 @@
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
     </row>
-    <row r="37" spans="1:42" ht="17.350000000000001">
+    <row r="37" spans="1:42" ht="18">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -4010,7 +4031,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
-      <c r="AD37" s="46"/>
+      <c r="AD37" s="42"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="11"/>
       <c r="AG37" s="5"/>
@@ -4024,7 +4045,7 @@
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
     </row>
-    <row r="38" spans="1:42" ht="17.350000000000001">
+    <row r="38" spans="1:42" ht="18">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -4054,7 +4075,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
-      <c r="AD38" s="46"/>
+      <c r="AD38" s="42"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="11"/>
       <c r="AG38" s="5"/>
@@ -4068,7 +4089,7 @@
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
     </row>
-    <row r="39" spans="1:42" ht="17.350000000000001">
+    <row r="39" spans="1:42" ht="18">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -4098,7 +4119,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
-      <c r="AD39" s="46"/>
+      <c r="AD39" s="42"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="5"/>
@@ -4112,7 +4133,7 @@
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
     </row>
-    <row r="40" spans="1:42" ht="17.350000000000001">
+    <row r="40" spans="1:42" ht="18">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -4142,7 +4163,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
-      <c r="AD40" s="46"/>
+      <c r="AD40" s="42"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="11"/>
       <c r="AG40" s="5"/>
@@ -4156,7 +4177,7 @@
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
     </row>
-    <row r="41" spans="1:42" ht="17.350000000000001">
+    <row r="41" spans="1:42" ht="18">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -4186,7 +4207,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="10"/>
       <c r="AC41" s="10"/>
-      <c r="AD41" s="46"/>
+      <c r="AD41" s="42"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="5"/>
@@ -4200,7 +4221,7 @@
       <c r="AO41" s="5"/>
       <c r="AP41" s="5"/>
     </row>
-    <row r="42" spans="1:42" ht="17.350000000000001">
+    <row r="42" spans="1:42" ht="18">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -4230,7 +4251,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
-      <c r="AD42" s="46"/>
+      <c r="AD42" s="42"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="5"/>
@@ -4244,7 +4265,7 @@
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
     </row>
-    <row r="43" spans="1:42" ht="17.350000000000001">
+    <row r="43" spans="1:42" ht="18">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -4274,7 +4295,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="10"/>
       <c r="AC43" s="10"/>
-      <c r="AD43" s="46"/>
+      <c r="AD43" s="42"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="5"/>
@@ -4288,7 +4309,7 @@
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
     </row>
-    <row r="44" spans="1:42" ht="17.350000000000001">
+    <row r="44" spans="1:42" ht="18">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -4318,7 +4339,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
-      <c r="AD44" s="46"/>
+      <c r="AD44" s="42"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="5"/>
@@ -4332,7 +4353,7 @@
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
     </row>
-    <row r="45" spans="1:42" ht="17.350000000000001">
+    <row r="45" spans="1:42" ht="18">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -4362,7 +4383,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10"/>
-      <c r="AD45" s="46"/>
+      <c r="AD45" s="42"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="5"/>
@@ -4376,7 +4397,7 @@
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
     </row>
-    <row r="46" spans="1:42" ht="17.350000000000001">
+    <row r="46" spans="1:42" ht="18">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -4406,7 +4427,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
-      <c r="AD46" s="46"/>
+      <c r="AD46" s="42"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="5"/>
@@ -4420,7 +4441,7 @@
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>
     </row>
-    <row r="47" spans="1:42" ht="17.350000000000001">
+    <row r="47" spans="1:42" ht="18">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -4450,7 +4471,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="10"/>
       <c r="AC47" s="10"/>
-      <c r="AD47" s="46"/>
+      <c r="AD47" s="42"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="5"/>
@@ -4464,7 +4485,7 @@
       <c r="AO47" s="5"/>
       <c r="AP47" s="5"/>
     </row>
-    <row r="48" spans="1:42" ht="17.350000000000001">
+    <row r="48" spans="1:42" ht="18">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -4494,7 +4515,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
-      <c r="AD48" s="46"/>
+      <c r="AD48" s="42"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="5"/>
@@ -4508,7 +4529,7 @@
       <c r="AO48" s="5"/>
       <c r="AP48" s="5"/>
     </row>
-    <row r="49" spans="1:42" ht="17.350000000000001">
+    <row r="49" spans="1:42" ht="18">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -4538,7 +4559,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="10"/>
       <c r="AC49" s="10"/>
-      <c r="AD49" s="46"/>
+      <c r="AD49" s="42"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="5"/>
@@ -4552,7 +4573,7 @@
       <c r="AO49" s="5"/>
       <c r="AP49" s="5"/>
     </row>
-    <row r="50" spans="1:42" ht="17.350000000000001">
+    <row r="50" spans="1:42" ht="18">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -4582,7 +4603,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
-      <c r="AD50" s="46"/>
+      <c r="AD50" s="42"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="5"/>
@@ -4596,7 +4617,7 @@
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
     </row>
-    <row r="51" spans="1:42" ht="17.350000000000001">
+    <row r="51" spans="1:42" ht="18">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -4626,7 +4647,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
-      <c r="AD51" s="46"/>
+      <c r="AD51" s="42"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="11"/>
       <c r="AG51" s="5"/>
@@ -4640,7 +4661,7 @@
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
     </row>
-    <row r="52" spans="1:42" ht="17.350000000000001">
+    <row r="52" spans="1:42" ht="18">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -4670,7 +4691,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
-      <c r="AD52" s="46"/>
+      <c r="AD52" s="42"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="5"/>
@@ -4684,7 +4705,7 @@
       <c r="AO52" s="5"/>
       <c r="AP52" s="5"/>
     </row>
-    <row r="53" spans="1:42" ht="17.350000000000001">
+    <row r="53" spans="1:42" ht="18">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -4714,7 +4735,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
-      <c r="AD53" s="46"/>
+      <c r="AD53" s="42"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="11"/>
       <c r="AG53" s="5"/>
@@ -4728,7 +4749,7 @@
       <c r="AO53" s="5"/>
       <c r="AP53" s="5"/>
     </row>
-    <row r="54" spans="1:42" ht="17.350000000000001">
+    <row r="54" spans="1:42" ht="18">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -4758,7 +4779,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
-      <c r="AD54" s="46"/>
+      <c r="AD54" s="42"/>
       <c r="AE54" s="10"/>
       <c r="AF54" s="11"/>
       <c r="AG54" s="5"/>
@@ -4772,7 +4793,7 @@
       <c r="AO54" s="5"/>
       <c r="AP54" s="5"/>
     </row>
-    <row r="55" spans="1:42" ht="17.350000000000001">
+    <row r="55" spans="1:42" ht="18">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -4802,7 +4823,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
-      <c r="AD55" s="46"/>
+      <c r="AD55" s="42"/>
       <c r="AE55" s="10"/>
       <c r="AF55" s="11"/>
       <c r="AG55" s="5"/>
@@ -4816,7 +4837,7 @@
       <c r="AO55" s="5"/>
       <c r="AP55" s="5"/>
     </row>
-    <row r="56" spans="1:42" ht="17.350000000000001">
+    <row r="56" spans="1:42" ht="18">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -4846,7 +4867,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
-      <c r="AD56" s="46"/>
+      <c r="AD56" s="42"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="11"/>
       <c r="AG56" s="5"/>
@@ -4860,7 +4881,7 @@
       <c r="AO56" s="5"/>
       <c r="AP56" s="5"/>
     </row>
-    <row r="57" spans="1:42" ht="17.350000000000001">
+    <row r="57" spans="1:42" ht="18">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -4890,7 +4911,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
-      <c r="AD57" s="46"/>
+      <c r="AD57" s="42"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="11"/>
       <c r="AG57" s="5"/>
@@ -4904,7 +4925,7 @@
       <c r="AO57" s="5"/>
       <c r="AP57" s="5"/>
     </row>
-    <row r="58" spans="1:42" ht="17.350000000000001">
+    <row r="58" spans="1:42" ht="18">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -4934,7 +4955,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
-      <c r="AD58" s="46"/>
+      <c r="AD58" s="42"/>
       <c r="AE58" s="10"/>
       <c r="AF58" s="11"/>
       <c r="AG58" s="5"/>
@@ -4948,7 +4969,7 @@
       <c r="AO58" s="5"/>
       <c r="AP58" s="5"/>
     </row>
-    <row r="59" spans="1:42" ht="17.350000000000001">
+    <row r="59" spans="1:42" ht="18">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -4978,7 +4999,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
-      <c r="AD59" s="46"/>
+      <c r="AD59" s="42"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="5"/>
@@ -4992,7 +5013,7 @@
       <c r="AO59" s="5"/>
       <c r="AP59" s="5"/>
     </row>
-    <row r="60" spans="1:42" ht="17.350000000000001">
+    <row r="60" spans="1:42" ht="18">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -5022,7 +5043,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
-      <c r="AD60" s="46"/>
+      <c r="AD60" s="42"/>
       <c r="AE60" s="10"/>
       <c r="AF60" s="11"/>
       <c r="AG60" s="5"/>
@@ -5036,7 +5057,7 @@
       <c r="AO60" s="5"/>
       <c r="AP60" s="5"/>
     </row>
-    <row r="61" spans="1:42" ht="17.350000000000001">
+    <row r="61" spans="1:42" ht="18">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -5066,7 +5087,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="10"/>
-      <c r="AD61" s="46"/>
+      <c r="AD61" s="42"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="11"/>
       <c r="AG61" s="5"/>
@@ -5080,7 +5101,7 @@
       <c r="AO61" s="5"/>
       <c r="AP61" s="5"/>
     </row>
-    <row r="62" spans="1:42" ht="17.350000000000001">
+    <row r="62" spans="1:42" ht="18">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -5110,7 +5131,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
-      <c r="AD62" s="46"/>
+      <c r="AD62" s="42"/>
       <c r="AE62" s="10"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="5"/>
@@ -5124,7 +5145,7 @@
       <c r="AO62" s="5"/>
       <c r="AP62" s="5"/>
     </row>
-    <row r="63" spans="1:42" ht="17.350000000000001">
+    <row r="63" spans="1:42" ht="18">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -5154,7 +5175,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="10"/>
       <c r="AC63" s="10"/>
-      <c r="AD63" s="46"/>
+      <c r="AD63" s="42"/>
       <c r="AE63" s="10"/>
       <c r="AF63" s="11"/>
       <c r="AG63" s="5"/>
@@ -5168,7 +5189,7 @@
       <c r="AO63" s="5"/>
       <c r="AP63" s="5"/>
     </row>
-    <row r="64" spans="1:42" ht="17.350000000000001">
+    <row r="64" spans="1:42" ht="18">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -5198,7 +5219,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="10"/>
       <c r="AC64" s="10"/>
-      <c r="AD64" s="46"/>
+      <c r="AD64" s="42"/>
       <c r="AE64" s="10"/>
       <c r="AF64" s="11"/>
       <c r="AG64" s="5"/>
@@ -5212,7 +5233,7 @@
       <c r="AO64" s="5"/>
       <c r="AP64" s="5"/>
     </row>
-    <row r="65" spans="1:42" ht="17.350000000000001">
+    <row r="65" spans="1:42" ht="18">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -5242,7 +5263,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="10"/>
       <c r="AC65" s="10"/>
-      <c r="AD65" s="46"/>
+      <c r="AD65" s="42"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="11"/>
       <c r="AG65" s="5"/>
@@ -5256,7 +5277,7 @@
       <c r="AO65" s="5"/>
       <c r="AP65" s="5"/>
     </row>
-    <row r="66" spans="1:42" ht="17.350000000000001">
+    <row r="66" spans="1:42" ht="18">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -5286,7 +5307,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="10"/>
       <c r="AC66" s="10"/>
-      <c r="AD66" s="46"/>
+      <c r="AD66" s="42"/>
       <c r="AE66" s="10"/>
       <c r="AF66" s="11"/>
       <c r="AG66" s="5"/>
@@ -5300,7 +5321,7 @@
       <c r="AO66" s="5"/>
       <c r="AP66" s="5"/>
     </row>
-    <row r="67" spans="1:42" ht="17.350000000000001">
+    <row r="67" spans="1:42" ht="18">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -5330,7 +5351,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="10"/>
       <c r="AC67" s="10"/>
-      <c r="AD67" s="46"/>
+      <c r="AD67" s="42"/>
       <c r="AE67" s="10"/>
       <c r="AF67" s="11"/>
       <c r="AG67" s="5"/>
@@ -5344,7 +5365,7 @@
       <c r="AO67" s="5"/>
       <c r="AP67" s="5"/>
     </row>
-    <row r="68" spans="1:42" ht="17.350000000000001">
+    <row r="68" spans="1:42" ht="18">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -5374,7 +5395,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
-      <c r="AD68" s="46"/>
+      <c r="AD68" s="42"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="11"/>
       <c r="AG68" s="5"/>
@@ -5388,7 +5409,7 @@
       <c r="AO68" s="5"/>
       <c r="AP68" s="5"/>
     </row>
-    <row r="69" spans="1:42" ht="17.350000000000001">
+    <row r="69" spans="1:42" ht="18">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -5418,7 +5439,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
-      <c r="AD69" s="46"/>
+      <c r="AD69" s="42"/>
       <c r="AE69" s="10"/>
       <c r="AF69" s="11"/>
       <c r="AG69" s="5"/>
@@ -5432,7 +5453,7 @@
       <c r="AO69" s="5"/>
       <c r="AP69" s="5"/>
     </row>
-    <row r="70" spans="1:42" ht="17.350000000000001">
+    <row r="70" spans="1:42" ht="18">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -5462,7 +5483,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
-      <c r="AD70" s="46"/>
+      <c r="AD70" s="42"/>
       <c r="AE70" s="10"/>
       <c r="AF70" s="11"/>
       <c r="AG70" s="5"/>
@@ -5476,7 +5497,7 @@
       <c r="AO70" s="5"/>
       <c r="AP70" s="5"/>
     </row>
-    <row r="71" spans="1:42" ht="17.350000000000001">
+    <row r="71" spans="1:42" ht="18">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -5506,7 +5527,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
-      <c r="AD71" s="46"/>
+      <c r="AD71" s="42"/>
       <c r="AE71" s="10"/>
       <c r="AF71" s="11"/>
       <c r="AG71" s="5"/>
@@ -5520,7 +5541,7 @@
       <c r="AO71" s="5"/>
       <c r="AP71" s="5"/>
     </row>
-    <row r="72" spans="1:42" ht="17.350000000000001">
+    <row r="72" spans="1:42" ht="18">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -5550,7 +5571,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
-      <c r="AD72" s="46"/>
+      <c r="AD72" s="42"/>
       <c r="AE72" s="10"/>
       <c r="AF72" s="11"/>
       <c r="AG72" s="5"/>
@@ -5564,7 +5585,7 @@
       <c r="AO72" s="5"/>
       <c r="AP72" s="5"/>
     </row>
-    <row r="73" spans="1:42" ht="17.350000000000001">
+    <row r="73" spans="1:42" ht="18">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -5594,7 +5615,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="10"/>
       <c r="AC73" s="10"/>
-      <c r="AD73" s="46"/>
+      <c r="AD73" s="42"/>
       <c r="AE73" s="10"/>
       <c r="AF73" s="11"/>
       <c r="AG73" s="5"/>
@@ -5608,7 +5629,7 @@
       <c r="AO73" s="5"/>
       <c r="AP73" s="5"/>
     </row>
-    <row r="74" spans="1:42" ht="17.350000000000001">
+    <row r="74" spans="1:42" ht="18">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -5638,7 +5659,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="10"/>
       <c r="AC74" s="10"/>
-      <c r="AD74" s="46"/>
+      <c r="AD74" s="42"/>
       <c r="AE74" s="10"/>
       <c r="AF74" s="11"/>
       <c r="AG74" s="5"/>
@@ -5652,7 +5673,7 @@
       <c r="AO74" s="5"/>
       <c r="AP74" s="5"/>
     </row>
-    <row r="75" spans="1:42" ht="17.350000000000001">
+    <row r="75" spans="1:42" ht="18">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -5682,7 +5703,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="10"/>
       <c r="AC75" s="10"/>
-      <c r="AD75" s="46"/>
+      <c r="AD75" s="42"/>
       <c r="AE75" s="10"/>
       <c r="AF75" s="11"/>
       <c r="AG75" s="5"/>
@@ -5696,7 +5717,7 @@
       <c r="AO75" s="5"/>
       <c r="AP75" s="5"/>
     </row>
-    <row r="76" spans="1:42" ht="17.350000000000001">
+    <row r="76" spans="1:42" ht="18">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -5726,7 +5747,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10"/>
-      <c r="AD76" s="46"/>
+      <c r="AD76" s="42"/>
       <c r="AE76" s="10"/>
       <c r="AF76" s="11"/>
       <c r="AG76" s="5"/>
@@ -5740,7 +5761,7 @@
       <c r="AO76" s="5"/>
       <c r="AP76" s="5"/>
     </row>
-    <row r="77" spans="1:42" ht="17.350000000000001">
+    <row r="77" spans="1:42" ht="18">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -5770,7 +5791,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="10"/>
       <c r="AC77" s="10"/>
-      <c r="AD77" s="46"/>
+      <c r="AD77" s="42"/>
       <c r="AE77" s="10"/>
       <c r="AF77" s="11"/>
       <c r="AG77" s="5"/>
@@ -5784,7 +5805,7 @@
       <c r="AO77" s="5"/>
       <c r="AP77" s="5"/>
     </row>
-    <row r="78" spans="1:42" ht="17.350000000000001">
+    <row r="78" spans="1:42" ht="18">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -5814,7 +5835,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
-      <c r="AD78" s="46"/>
+      <c r="AD78" s="42"/>
       <c r="AE78" s="10"/>
       <c r="AF78" s="11"/>
       <c r="AG78" s="5"/>
@@ -5828,7 +5849,7 @@
       <c r="AO78" s="5"/>
       <c r="AP78" s="5"/>
     </row>
-    <row r="79" spans="1:42" ht="17.350000000000001">
+    <row r="79" spans="1:42" ht="18">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -5858,7 +5879,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
-      <c r="AD79" s="46"/>
+      <c r="AD79" s="42"/>
       <c r="AE79" s="10"/>
       <c r="AF79" s="11"/>
       <c r="AG79" s="5"/>
@@ -5872,7 +5893,7 @@
       <c r="AO79" s="5"/>
       <c r="AP79" s="5"/>
     </row>
-    <row r="80" spans="1:42" ht="17.350000000000001">
+    <row r="80" spans="1:42" ht="18">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -5902,7 +5923,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
-      <c r="AD80" s="46"/>
+      <c r="AD80" s="42"/>
       <c r="AE80" s="10"/>
       <c r="AF80" s="11"/>
       <c r="AG80" s="5"/>
@@ -5916,7 +5937,7 @@
       <c r="AO80" s="5"/>
       <c r="AP80" s="5"/>
     </row>
-    <row r="81" spans="1:42" ht="17.350000000000001">
+    <row r="81" spans="1:42" ht="18">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -5946,7 +5967,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
-      <c r="AD81" s="46"/>
+      <c r="AD81" s="42"/>
       <c r="AE81" s="10"/>
       <c r="AF81" s="11"/>
       <c r="AG81" s="5"/>
@@ -5960,7 +5981,7 @@
       <c r="AO81" s="5"/>
       <c r="AP81" s="5"/>
     </row>
-    <row r="82" spans="1:42" ht="17.350000000000001">
+    <row r="82" spans="1:42" ht="18">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -5990,7 +6011,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
-      <c r="AD82" s="46"/>
+      <c r="AD82" s="42"/>
       <c r="AE82" s="10"/>
       <c r="AF82" s="11"/>
       <c r="AG82" s="5"/>
@@ -6004,7 +6025,7 @@
       <c r="AO82" s="5"/>
       <c r="AP82" s="5"/>
     </row>
-    <row r="83" spans="1:42" ht="17.350000000000001">
+    <row r="83" spans="1:42" ht="18">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -6034,7 +6055,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
-      <c r="AD83" s="46"/>
+      <c r="AD83" s="42"/>
       <c r="AE83" s="10"/>
       <c r="AF83" s="11"/>
       <c r="AG83" s="5"/>
@@ -6048,7 +6069,7 @@
       <c r="AO83" s="5"/>
       <c r="AP83" s="5"/>
     </row>
-    <row r="84" spans="1:42" ht="17.350000000000001">
+    <row r="84" spans="1:42" ht="18">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -6078,7 +6099,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
-      <c r="AD84" s="46"/>
+      <c r="AD84" s="42"/>
       <c r="AE84" s="10"/>
       <c r="AF84" s="11"/>
       <c r="AG84" s="5"/>
@@ -6092,7 +6113,7 @@
       <c r="AO84" s="5"/>
       <c r="AP84" s="5"/>
     </row>
-    <row r="85" spans="1:42" ht="17.350000000000001">
+    <row r="85" spans="1:42" ht="18">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -6122,7 +6143,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="10"/>
       <c r="AC85" s="10"/>
-      <c r="AD85" s="46"/>
+      <c r="AD85" s="42"/>
       <c r="AE85" s="10"/>
       <c r="AF85" s="11"/>
       <c r="AG85" s="5"/>
@@ -6136,7 +6157,7 @@
       <c r="AO85" s="5"/>
       <c r="AP85" s="5"/>
     </row>
-    <row r="86" spans="1:42" ht="17.350000000000001">
+    <row r="86" spans="1:42" ht="18">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -6166,7 +6187,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="10"/>
       <c r="AC86" s="10"/>
-      <c r="AD86" s="46"/>
+      <c r="AD86" s="42"/>
       <c r="AE86" s="10"/>
       <c r="AF86" s="11"/>
       <c r="AG86" s="5"/>
@@ -6180,7 +6201,7 @@
       <c r="AO86" s="5"/>
       <c r="AP86" s="5"/>
     </row>
-    <row r="87" spans="1:42" ht="17.350000000000001">
+    <row r="87" spans="1:42" ht="18">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -6210,7 +6231,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
-      <c r="AD87" s="46"/>
+      <c r="AD87" s="42"/>
       <c r="AE87" s="10"/>
       <c r="AF87" s="11"/>
       <c r="AG87" s="5"/>
@@ -6224,7 +6245,7 @@
       <c r="AO87" s="5"/>
       <c r="AP87" s="5"/>
     </row>
-    <row r="88" spans="1:42" ht="17.350000000000001">
+    <row r="88" spans="1:42" ht="18">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -6254,7 +6275,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
-      <c r="AD88" s="46"/>
+      <c r="AD88" s="42"/>
       <c r="AE88" s="10"/>
       <c r="AF88" s="11"/>
       <c r="AG88" s="5"/>
@@ -6268,7 +6289,7 @@
       <c r="AO88" s="5"/>
       <c r="AP88" s="5"/>
     </row>
-    <row r="89" spans="1:42" ht="17.350000000000001">
+    <row r="89" spans="1:42" ht="18">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -6298,7 +6319,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
-      <c r="AD89" s="46"/>
+      <c r="AD89" s="42"/>
       <c r="AE89" s="10"/>
       <c r="AF89" s="11"/>
       <c r="AG89" s="5"/>
@@ -6312,7 +6333,7 @@
       <c r="AO89" s="5"/>
       <c r="AP89" s="5"/>
     </row>
-    <row r="90" spans="1:42" ht="17.350000000000001">
+    <row r="90" spans="1:42" ht="18">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -6342,7 +6363,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
-      <c r="AD90" s="46"/>
+      <c r="AD90" s="42"/>
       <c r="AE90" s="10"/>
       <c r="AF90" s="11"/>
       <c r="AG90" s="5"/>
@@ -6356,7 +6377,7 @@
       <c r="AO90" s="5"/>
       <c r="AP90" s="5"/>
     </row>
-    <row r="91" spans="1:42" ht="17.350000000000001">
+    <row r="91" spans="1:42" ht="18">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -6386,7 +6407,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
-      <c r="AD91" s="46"/>
+      <c r="AD91" s="42"/>
       <c r="AE91" s="10"/>
       <c r="AF91" s="11"/>
       <c r="AG91" s="5"/>
@@ -6400,7 +6421,7 @@
       <c r="AO91" s="5"/>
       <c r="AP91" s="5"/>
     </row>
-    <row r="92" spans="1:42" ht="17.350000000000001">
+    <row r="92" spans="1:42" ht="18">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -6430,7 +6451,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
-      <c r="AD92" s="46"/>
+      <c r="AD92" s="42"/>
       <c r="AE92" s="10"/>
       <c r="AF92" s="11"/>
       <c r="AG92" s="5"/>
@@ -6444,7 +6465,7 @@
       <c r="AO92" s="5"/>
       <c r="AP92" s="5"/>
     </row>
-    <row r="93" spans="1:42" ht="17.350000000000001">
+    <row r="93" spans="1:42" ht="18">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -6474,7 +6495,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
-      <c r="AD93" s="46"/>
+      <c r="AD93" s="42"/>
       <c r="AE93" s="10"/>
       <c r="AF93" s="11"/>
       <c r="AG93" s="5"/>
@@ -6488,7 +6509,7 @@
       <c r="AO93" s="5"/>
       <c r="AP93" s="5"/>
     </row>
-    <row r="94" spans="1:42" ht="17.350000000000001">
+    <row r="94" spans="1:42" ht="18">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -6518,7 +6539,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="10"/>
       <c r="AC94" s="10"/>
-      <c r="AD94" s="46"/>
+      <c r="AD94" s="42"/>
       <c r="AE94" s="10"/>
       <c r="AF94" s="11"/>
       <c r="AG94" s="5"/>
@@ -6532,7 +6553,7 @@
       <c r="AO94" s="5"/>
       <c r="AP94" s="5"/>
     </row>
-    <row r="95" spans="1:42" ht="17.350000000000001">
+    <row r="95" spans="1:42" ht="18">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -6562,7 +6583,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="10"/>
       <c r="AC95" s="10"/>
-      <c r="AD95" s="46"/>
+      <c r="AD95" s="42"/>
       <c r="AE95" s="10"/>
       <c r="AF95" s="11"/>
       <c r="AG95" s="5"/>
@@ -6576,7 +6597,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" ht="17.350000000000001">
+    <row r="96" spans="1:42" ht="18">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -6606,7 +6627,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="10"/>
       <c r="AC96" s="10"/>
-      <c r="AD96" s="46"/>
+      <c r="AD96" s="42"/>
       <c r="AE96" s="10"/>
       <c r="AF96" s="11"/>
       <c r="AG96" s="5"/>
@@ -6620,7 +6641,7 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="1:42" ht="17.350000000000001">
+    <row r="97" spans="1:42" ht="18">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -6650,7 +6671,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
-      <c r="AD97" s="46"/>
+      <c r="AD97" s="42"/>
       <c r="AE97" s="10"/>
       <c r="AF97" s="11"/>
       <c r="AG97" s="5"/>
@@ -6664,7 +6685,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="1:42" ht="17.350000000000001">
+    <row r="98" spans="1:42" ht="18">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -6694,7 +6715,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="10"/>
       <c r="AC98" s="10"/>
-      <c r="AD98" s="46"/>
+      <c r="AD98" s="42"/>
       <c r="AE98" s="10"/>
       <c r="AF98" s="11"/>
       <c r="AG98" s="5"/>
@@ -6708,7 +6729,7 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="1:42" ht="17.350000000000001">
+    <row r="99" spans="1:42" ht="18">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
@@ -6738,7 +6759,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
-      <c r="AD99" s="46"/>
+      <c r="AD99" s="42"/>
       <c r="AE99" s="10"/>
       <c r="AF99" s="11"/>
       <c r="AG99" s="5"/>
@@ -6752,7 +6773,7 @@
       <c r="AO99" s="5"/>
       <c r="AP99" s="5"/>
     </row>
-    <row r="100" spans="1:42" ht="17.350000000000001">
+    <row r="100" spans="1:42" ht="18">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -6782,7 +6803,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
-      <c r="AD100" s="46"/>
+      <c r="AD100" s="42"/>
       <c r="AE100" s="10"/>
       <c r="AF100" s="11"/>
       <c r="AG100" s="5"/>
@@ -6796,7 +6817,7 @@
       <c r="AO100" s="5"/>
       <c r="AP100" s="5"/>
     </row>
-    <row r="101" spans="1:42" ht="17.350000000000001">
+    <row r="101" spans="1:42" ht="18">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -6826,7 +6847,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="10"/>
       <c r="AC101" s="10"/>
-      <c r="AD101" s="46"/>
+      <c r="AD101" s="42"/>
       <c r="AE101" s="10"/>
       <c r="AF101" s="11"/>
       <c r="AG101" s="5"/>
@@ -6840,7 +6861,7 @@
       <c r="AO101" s="5"/>
       <c r="AP101" s="5"/>
     </row>
-    <row r="102" spans="1:42" ht="17.350000000000001">
+    <row r="102" spans="1:42" ht="18">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -6870,7 +6891,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
-      <c r="AD102" s="46"/>
+      <c r="AD102" s="42"/>
       <c r="AE102" s="10"/>
       <c r="AF102" s="11"/>
       <c r="AG102" s="5"/>
@@ -6884,7 +6905,7 @@
       <c r="AO102" s="5"/>
       <c r="AP102" s="5"/>
     </row>
-    <row r="103" spans="1:42" ht="17.350000000000001">
+    <row r="103" spans="1:42" ht="18">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -6914,7 +6935,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
-      <c r="AD103" s="46"/>
+      <c r="AD103" s="42"/>
       <c r="AE103" s="10"/>
       <c r="AF103" s="11"/>
       <c r="AG103" s="5"/>
@@ -6928,7 +6949,7 @@
       <c r="AO103" s="5"/>
       <c r="AP103" s="5"/>
     </row>
-    <row r="104" spans="1:42" ht="17.350000000000001">
+    <row r="104" spans="1:42" ht="18">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -6958,7 +6979,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
-      <c r="AD104" s="46"/>
+      <c r="AD104" s="42"/>
       <c r="AE104" s="10"/>
       <c r="AF104" s="11"/>
       <c r="AG104" s="5"/>
@@ -6972,7 +6993,7 @@
       <c r="AO104" s="5"/>
       <c r="AP104" s="5"/>
     </row>
-    <row r="105" spans="1:42" ht="17.350000000000001">
+    <row r="105" spans="1:42" ht="18">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -7002,7 +7023,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
-      <c r="AD105" s="46"/>
+      <c r="AD105" s="42"/>
       <c r="AE105" s="10"/>
       <c r="AF105" s="11"/>
       <c r="AG105" s="5"/>
@@ -7016,7 +7037,7 @@
       <c r="AO105" s="5"/>
       <c r="AP105" s="5"/>
     </row>
-    <row r="106" spans="1:42" ht="17.350000000000001">
+    <row r="106" spans="1:42" ht="18">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -7046,7 +7067,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
-      <c r="AD106" s="46"/>
+      <c r="AD106" s="42"/>
       <c r="AE106" s="10"/>
       <c r="AF106" s="11"/>
       <c r="AG106" s="5"/>
@@ -7060,7 +7081,7 @@
       <c r="AO106" s="5"/>
       <c r="AP106" s="5"/>
     </row>
-    <row r="107" spans="1:42" ht="17.350000000000001">
+    <row r="107" spans="1:42" ht="18">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -7090,7 +7111,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
-      <c r="AD107" s="46"/>
+      <c r="AD107" s="42"/>
       <c r="AE107" s="10"/>
       <c r="AF107" s="11"/>
       <c r="AG107" s="5"/>
@@ -7104,7 +7125,7 @@
       <c r="AO107" s="5"/>
       <c r="AP107" s="5"/>
     </row>
-    <row r="108" spans="1:42" ht="17.350000000000001">
+    <row r="108" spans="1:42" ht="18">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -7134,7 +7155,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
-      <c r="AD108" s="46"/>
+      <c r="AD108" s="42"/>
       <c r="AE108" s="10"/>
       <c r="AF108" s="11"/>
       <c r="AG108" s="5"/>
@@ -7148,7 +7169,7 @@
       <c r="AO108" s="5"/>
       <c r="AP108" s="5"/>
     </row>
-    <row r="109" spans="1:42" ht="17.350000000000001">
+    <row r="109" spans="1:42" ht="18">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -7178,7 +7199,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
-      <c r="AD109" s="46"/>
+      <c r="AD109" s="42"/>
       <c r="AE109" s="10"/>
       <c r="AF109" s="11"/>
       <c r="AG109" s="5"/>
@@ -7192,7 +7213,7 @@
       <c r="AO109" s="5"/>
       <c r="AP109" s="5"/>
     </row>
-    <row r="110" spans="1:42" ht="17.350000000000001">
+    <row r="110" spans="1:42" ht="18">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -7222,7 +7243,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
-      <c r="AD110" s="46"/>
+      <c r="AD110" s="42"/>
       <c r="AE110" s="10"/>
       <c r="AF110" s="11"/>
       <c r="AG110" s="5"/>
@@ -7236,7 +7257,7 @@
       <c r="AO110" s="5"/>
       <c r="AP110" s="5"/>
     </row>
-    <row r="111" spans="1:42" ht="17.350000000000001">
+    <row r="111" spans="1:42" ht="18">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -7266,7 +7287,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="10"/>
       <c r="AC111" s="10"/>
-      <c r="AD111" s="46"/>
+      <c r="AD111" s="42"/>
       <c r="AE111" s="10"/>
       <c r="AF111" s="11"/>
       <c r="AG111" s="5"/>
@@ -7280,7 +7301,7 @@
       <c r="AO111" s="5"/>
       <c r="AP111" s="5"/>
     </row>
-    <row r="112" spans="1:42" ht="17.350000000000001">
+    <row r="112" spans="1:42" ht="18">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -7310,7 +7331,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
-      <c r="AD112" s="46"/>
+      <c r="AD112" s="42"/>
       <c r="AE112" s="10"/>
       <c r="AF112" s="11"/>
       <c r="AG112" s="5"/>
@@ -7324,7 +7345,7 @@
       <c r="AO112" s="5"/>
       <c r="AP112" s="5"/>
     </row>
-    <row r="113" spans="1:42" ht="17.350000000000001">
+    <row r="113" spans="1:42" ht="18">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -7354,7 +7375,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
-      <c r="AD113" s="46"/>
+      <c r="AD113" s="42"/>
       <c r="AE113" s="10"/>
       <c r="AF113" s="11"/>
       <c r="AG113" s="5"/>
@@ -7368,7 +7389,7 @@
       <c r="AO113" s="5"/>
       <c r="AP113" s="5"/>
     </row>
-    <row r="114" spans="1:42" ht="17.350000000000001">
+    <row r="114" spans="1:42" ht="18">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -7398,7 +7419,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="10"/>
       <c r="AC114" s="10"/>
-      <c r="AD114" s="46"/>
+      <c r="AD114" s="42"/>
       <c r="AE114" s="10"/>
       <c r="AF114" s="11"/>
       <c r="AG114" s="5"/>
@@ -7412,7 +7433,7 @@
       <c r="AO114" s="5"/>
       <c r="AP114" s="5"/>
     </row>
-    <row r="115" spans="1:42" ht="17.350000000000001">
+    <row r="115" spans="1:42" ht="18">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
@@ -7442,7 +7463,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="10"/>
       <c r="AC115" s="10"/>
-      <c r="AD115" s="46"/>
+      <c r="AD115" s="42"/>
       <c r="AE115" s="10"/>
       <c r="AF115" s="11"/>
       <c r="AG115" s="5"/>
@@ -7456,7 +7477,7 @@
       <c r="AO115" s="5"/>
       <c r="AP115" s="5"/>
     </row>
-    <row r="116" spans="1:42" ht="17.350000000000001">
+    <row r="116" spans="1:42" ht="18">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -7486,7 +7507,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="10"/>
       <c r="AC116" s="10"/>
-      <c r="AD116" s="46"/>
+      <c r="AD116" s="42"/>
       <c r="AE116" s="10"/>
       <c r="AF116" s="11"/>
       <c r="AG116" s="5"/>
@@ -7500,7 +7521,7 @@
       <c r="AO116" s="5"/>
       <c r="AP116" s="5"/>
     </row>
-    <row r="117" spans="1:42" ht="17.350000000000001">
+    <row r="117" spans="1:42" ht="18">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
@@ -7530,7 +7551,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="10"/>
       <c r="AC117" s="10"/>
-      <c r="AD117" s="46"/>
+      <c r="AD117" s="42"/>
       <c r="AE117" s="10"/>
       <c r="AF117" s="11"/>
       <c r="AG117" s="5"/>
@@ -7544,7 +7565,7 @@
       <c r="AO117" s="5"/>
       <c r="AP117" s="5"/>
     </row>
-    <row r="118" spans="1:42" ht="17.350000000000001">
+    <row r="118" spans="1:42" ht="18">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
@@ -7574,7 +7595,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="10"/>
       <c r="AC118" s="10"/>
-      <c r="AD118" s="46"/>
+      <c r="AD118" s="42"/>
       <c r="AE118" s="10"/>
       <c r="AF118" s="11"/>
       <c r="AG118" s="5"/>
@@ -7588,7 +7609,7 @@
       <c r="AO118" s="5"/>
       <c r="AP118" s="5"/>
     </row>
-    <row r="119" spans="1:42" ht="17.350000000000001">
+    <row r="119" spans="1:42" ht="18">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
@@ -7618,7 +7639,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="10"/>
       <c r="AC119" s="10"/>
-      <c r="AD119" s="46"/>
+      <c r="AD119" s="42"/>
       <c r="AE119" s="10"/>
       <c r="AF119" s="11"/>
       <c r="AG119" s="5"/>
@@ -7632,7 +7653,7 @@
       <c r="AO119" s="5"/>
       <c r="AP119" s="5"/>
     </row>
-    <row r="120" spans="1:42" ht="17.350000000000001">
+    <row r="120" spans="1:42" ht="18">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
@@ -7662,7 +7683,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
-      <c r="AD120" s="46"/>
+      <c r="AD120" s="42"/>
       <c r="AE120" s="10"/>
       <c r="AF120" s="11"/>
       <c r="AG120" s="5"/>
@@ -7676,7 +7697,7 @@
       <c r="AO120" s="5"/>
       <c r="AP120" s="5"/>
     </row>
-    <row r="121" spans="1:42" ht="17.350000000000001">
+    <row r="121" spans="1:42" ht="18">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -7706,7 +7727,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="10"/>
       <c r="AC121" s="10"/>
-      <c r="AD121" s="46"/>
+      <c r="AD121" s="42"/>
       <c r="AE121" s="10"/>
       <c r="AF121" s="11"/>
       <c r="AG121" s="5"/>
@@ -7720,7 +7741,7 @@
       <c r="AO121" s="5"/>
       <c r="AP121" s="5"/>
     </row>
-    <row r="122" spans="1:42" ht="17.350000000000001">
+    <row r="122" spans="1:42" ht="18">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
@@ -7750,7 +7771,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="10"/>
       <c r="AC122" s="10"/>
-      <c r="AD122" s="46"/>
+      <c r="AD122" s="42"/>
       <c r="AE122" s="10"/>
       <c r="AF122" s="11"/>
       <c r="AG122" s="5"/>
@@ -7764,7 +7785,7 @@
       <c r="AO122" s="5"/>
       <c r="AP122" s="5"/>
     </row>
-    <row r="123" spans="1:42" ht="17.350000000000001">
+    <row r="123" spans="1:42" ht="18">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -7794,7 +7815,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="10"/>
       <c r="AC123" s="10"/>
-      <c r="AD123" s="46"/>
+      <c r="AD123" s="42"/>
       <c r="AE123" s="10"/>
       <c r="AF123" s="11"/>
       <c r="AG123" s="5"/>
@@ -7808,7 +7829,7 @@
       <c r="AO123" s="5"/>
       <c r="AP123" s="5"/>
     </row>
-    <row r="124" spans="1:42" ht="17.350000000000001">
+    <row r="124" spans="1:42" ht="18">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -7838,7 +7859,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="10"/>
       <c r="AC124" s="10"/>
-      <c r="AD124" s="46"/>
+      <c r="AD124" s="42"/>
       <c r="AE124" s="10"/>
       <c r="AF124" s="11"/>
       <c r="AG124" s="5"/>
@@ -7852,7 +7873,7 @@
       <c r="AO124" s="5"/>
       <c r="AP124" s="5"/>
     </row>
-    <row r="125" spans="1:42" ht="17.350000000000001">
+    <row r="125" spans="1:42" ht="18">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -7882,7 +7903,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
-      <c r="AD125" s="46"/>
+      <c r="AD125" s="42"/>
       <c r="AE125" s="10"/>
       <c r="AF125" s="11"/>
       <c r="AG125" s="5"/>
@@ -7896,7 +7917,7 @@
       <c r="AO125" s="5"/>
       <c r="AP125" s="5"/>
     </row>
-    <row r="126" spans="1:42" ht="17.350000000000001">
+    <row r="126" spans="1:42" ht="18">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -7926,7 +7947,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="10"/>
       <c r="AC126" s="10"/>
-      <c r="AD126" s="46"/>
+      <c r="AD126" s="42"/>
       <c r="AE126" s="10"/>
       <c r="AF126" s="11"/>
       <c r="AG126" s="5"/>
@@ -7940,7 +7961,7 @@
       <c r="AO126" s="5"/>
       <c r="AP126" s="5"/>
     </row>
-    <row r="127" spans="1:42" ht="17.350000000000001">
+    <row r="127" spans="1:42" ht="18">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -7970,7 +7991,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
-      <c r="AD127" s="46"/>
+      <c r="AD127" s="42"/>
       <c r="AE127" s="10"/>
       <c r="AF127" s="11"/>
       <c r="AG127" s="5"/>
@@ -7984,7 +8005,7 @@
       <c r="AO127" s="5"/>
       <c r="AP127" s="5"/>
     </row>
-    <row r="128" spans="1:42" ht="17.350000000000001">
+    <row r="128" spans="1:42" ht="18">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -8014,7 +8035,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="10"/>
       <c r="AC128" s="10"/>
-      <c r="AD128" s="46"/>
+      <c r="AD128" s="42"/>
       <c r="AE128" s="10"/>
       <c r="AF128" s="11"/>
       <c r="AG128" s="5"/>
@@ -8028,7 +8049,7 @@
       <c r="AO128" s="5"/>
       <c r="AP128" s="5"/>
     </row>
-    <row r="129" spans="1:42" ht="17.350000000000001">
+    <row r="129" spans="1:42" ht="18">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -8058,7 +8079,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="10"/>
       <c r="AC129" s="10"/>
-      <c r="AD129" s="46"/>
+      <c r="AD129" s="42"/>
       <c r="AE129" s="10"/>
       <c r="AF129" s="11"/>
       <c r="AG129" s="5"/>
@@ -8072,7 +8093,7 @@
       <c r="AO129" s="5"/>
       <c r="AP129" s="5"/>
     </row>
-    <row r="130" spans="1:42" ht="17.350000000000001">
+    <row r="130" spans="1:42" ht="18">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -8102,7 +8123,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="10"/>
       <c r="AC130" s="10"/>
-      <c r="AD130" s="46"/>
+      <c r="AD130" s="42"/>
       <c r="AE130" s="10"/>
       <c r="AF130" s="11"/>
       <c r="AG130" s="5"/>
@@ -8116,7 +8137,7 @@
       <c r="AO130" s="5"/>
       <c r="AP130" s="5"/>
     </row>
-    <row r="131" spans="1:42" ht="17.350000000000001">
+    <row r="131" spans="1:42" ht="18">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -8146,7 +8167,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="10"/>
       <c r="AC131" s="10"/>
-      <c r="AD131" s="46"/>
+      <c r="AD131" s="42"/>
       <c r="AE131" s="10"/>
       <c r="AF131" s="11"/>
       <c r="AG131" s="5"/>
@@ -8160,7 +8181,7 @@
       <c r="AO131" s="5"/>
       <c r="AP131" s="5"/>
     </row>
-    <row r="132" spans="1:42" ht="17.350000000000001">
+    <row r="132" spans="1:42" ht="18">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -8190,7 +8211,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="10"/>
       <c r="AC132" s="10"/>
-      <c r="AD132" s="46"/>
+      <c r="AD132" s="42"/>
       <c r="AE132" s="10"/>
       <c r="AF132" s="11"/>
       <c r="AG132" s="5"/>
@@ -8204,7 +8225,7 @@
       <c r="AO132" s="5"/>
       <c r="AP132" s="5"/>
     </row>
-    <row r="133" spans="1:42" ht="17.350000000000001">
+    <row r="133" spans="1:42" ht="18">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -8234,7 +8255,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="10"/>
       <c r="AC133" s="10"/>
-      <c r="AD133" s="46"/>
+      <c r="AD133" s="42"/>
       <c r="AE133" s="10"/>
       <c r="AF133" s="11"/>
       <c r="AG133" s="5"/>
@@ -8248,7 +8269,7 @@
       <c r="AO133" s="5"/>
       <c r="AP133" s="5"/>
     </row>
-    <row r="134" spans="1:42" ht="17.350000000000001">
+    <row r="134" spans="1:42" ht="18">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
@@ -8278,7 +8299,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="10"/>
       <c r="AC134" s="10"/>
-      <c r="AD134" s="46"/>
+      <c r="AD134" s="42"/>
       <c r="AE134" s="10"/>
       <c r="AF134" s="11"/>
       <c r="AG134" s="5"/>
@@ -8292,7 +8313,7 @@
       <c r="AO134" s="5"/>
       <c r="AP134" s="5"/>
     </row>
-    <row r="135" spans="1:42" ht="17.350000000000001">
+    <row r="135" spans="1:42" ht="18">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
@@ -8322,7 +8343,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="10"/>
       <c r="AC135" s="10"/>
-      <c r="AD135" s="46"/>
+      <c r="AD135" s="42"/>
       <c r="AE135" s="10"/>
       <c r="AF135" s="11"/>
       <c r="AG135" s="5"/>
@@ -8336,7 +8357,7 @@
       <c r="AO135" s="5"/>
       <c r="AP135" s="5"/>
     </row>
-    <row r="136" spans="1:42" ht="17.350000000000001">
+    <row r="136" spans="1:42" ht="18">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -8366,7 +8387,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="10"/>
       <c r="AC136" s="10"/>
-      <c r="AD136" s="46"/>
+      <c r="AD136" s="42"/>
       <c r="AE136" s="10"/>
       <c r="AF136" s="11"/>
       <c r="AG136" s="5"/>
@@ -8380,7 +8401,7 @@
       <c r="AO136" s="5"/>
       <c r="AP136" s="5"/>
     </row>
-    <row r="137" spans="1:42" ht="17.350000000000001">
+    <row r="137" spans="1:42" ht="18">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
@@ -8410,7 +8431,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="10"/>
       <c r="AC137" s="10"/>
-      <c r="AD137" s="46"/>
+      <c r="AD137" s="42"/>
       <c r="AE137" s="10"/>
       <c r="AF137" s="11"/>
       <c r="AG137" s="5"/>
@@ -8424,7 +8445,7 @@
       <c r="AO137" s="5"/>
       <c r="AP137" s="5"/>
     </row>
-    <row r="138" spans="1:42" ht="17.350000000000001">
+    <row r="138" spans="1:42" ht="18">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -8454,7 +8475,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="10"/>
       <c r="AC138" s="10"/>
-      <c r="AD138" s="46"/>
+      <c r="AD138" s="42"/>
       <c r="AE138" s="10"/>
       <c r="AF138" s="11"/>
       <c r="AG138" s="5"/>
@@ -8468,7 +8489,7 @@
       <c r="AO138" s="5"/>
       <c r="AP138" s="5"/>
     </row>
-    <row r="139" spans="1:42" ht="17.350000000000001">
+    <row r="139" spans="1:42" ht="18">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
@@ -8498,7 +8519,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="10"/>
       <c r="AC139" s="10"/>
-      <c r="AD139" s="46"/>
+      <c r="AD139" s="42"/>
       <c r="AE139" s="10"/>
       <c r="AF139" s="11"/>
       <c r="AG139" s="5"/>
@@ -8512,7 +8533,7 @@
       <c r="AO139" s="5"/>
       <c r="AP139" s="5"/>
     </row>
-    <row r="140" spans="1:42" ht="17.350000000000001">
+    <row r="140" spans="1:42" ht="18">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
@@ -8542,7 +8563,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="10"/>
       <c r="AC140" s="10"/>
-      <c r="AD140" s="46"/>
+      <c r="AD140" s="42"/>
       <c r="AE140" s="10"/>
       <c r="AF140" s="11"/>
       <c r="AG140" s="5"/>
@@ -8556,7 +8577,7 @@
       <c r="AO140" s="5"/>
       <c r="AP140" s="5"/>
     </row>
-    <row r="141" spans="1:42" ht="17.350000000000001">
+    <row r="141" spans="1:42" ht="18">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
@@ -8586,7 +8607,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="10"/>
       <c r="AC141" s="10"/>
-      <c r="AD141" s="46"/>
+      <c r="AD141" s="42"/>
       <c r="AE141" s="10"/>
       <c r="AF141" s="11"/>
       <c r="AG141" s="5"/>
@@ -8600,7 +8621,7 @@
       <c r="AO141" s="5"/>
       <c r="AP141" s="5"/>
     </row>
-    <row r="142" spans="1:42" ht="17.350000000000001">
+    <row r="142" spans="1:42" ht="18">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -8630,7 +8651,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="10"/>
       <c r="AC142" s="10"/>
-      <c r="AD142" s="46"/>
+      <c r="AD142" s="42"/>
       <c r="AE142" s="10"/>
       <c r="AF142" s="11"/>
       <c r="AG142" s="5"/>
@@ -8644,7 +8665,7 @@
       <c r="AO142" s="5"/>
       <c r="AP142" s="5"/>
     </row>
-    <row r="143" spans="1:42" ht="17.350000000000001">
+    <row r="143" spans="1:42" ht="18">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
@@ -8674,7 +8695,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="10"/>
       <c r="AC143" s="10"/>
-      <c r="AD143" s="46"/>
+      <c r="AD143" s="42"/>
       <c r="AE143" s="10"/>
       <c r="AF143" s="11"/>
       <c r="AG143" s="5"/>
@@ -8688,7 +8709,7 @@
       <c r="AO143" s="5"/>
       <c r="AP143" s="5"/>
     </row>
-    <row r="144" spans="1:42" ht="17.350000000000001">
+    <row r="144" spans="1:42" ht="18">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
@@ -8718,7 +8739,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="10"/>
       <c r="AC144" s="10"/>
-      <c r="AD144" s="46"/>
+      <c r="AD144" s="42"/>
       <c r="AE144" s="10"/>
       <c r="AF144" s="11"/>
       <c r="AG144" s="5"/>
@@ -8732,7 +8753,7 @@
       <c r="AO144" s="5"/>
       <c r="AP144" s="5"/>
     </row>
-    <row r="145" spans="1:42" ht="17.350000000000001">
+    <row r="145" spans="1:42" ht="18">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
@@ -8762,7 +8783,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="10"/>
       <c r="AC145" s="10"/>
-      <c r="AD145" s="46"/>
+      <c r="AD145" s="42"/>
       <c r="AE145" s="10"/>
       <c r="AF145" s="11"/>
       <c r="AG145" s="5"/>
@@ -8776,7 +8797,7 @@
       <c r="AO145" s="5"/>
       <c r="AP145" s="5"/>
     </row>
-    <row r="146" spans="1:42" ht="17.350000000000001">
+    <row r="146" spans="1:42" ht="18">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
@@ -8806,7 +8827,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="10"/>
       <c r="AC146" s="10"/>
-      <c r="AD146" s="46"/>
+      <c r="AD146" s="42"/>
       <c r="AE146" s="10"/>
       <c r="AF146" s="11"/>
       <c r="AG146" s="5"/>
@@ -8820,7 +8841,7 @@
       <c r="AO146" s="5"/>
       <c r="AP146" s="5"/>
     </row>
-    <row r="147" spans="1:42" ht="17.350000000000001">
+    <row r="147" spans="1:42" ht="18">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
@@ -8850,7 +8871,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="10"/>
       <c r="AC147" s="10"/>
-      <c r="AD147" s="46"/>
+      <c r="AD147" s="42"/>
       <c r="AE147" s="10"/>
       <c r="AF147" s="11"/>
       <c r="AG147" s="5"/>
@@ -8864,7 +8885,7 @@
       <c r="AO147" s="5"/>
       <c r="AP147" s="5"/>
     </row>
-    <row r="148" spans="1:42" ht="17.350000000000001">
+    <row r="148" spans="1:42" ht="18">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
@@ -8894,7 +8915,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="10"/>
       <c r="AC148" s="10"/>
-      <c r="AD148" s="46"/>
+      <c r="AD148" s="42"/>
       <c r="AE148" s="10"/>
       <c r="AF148" s="11"/>
       <c r="AG148" s="5"/>
@@ -8908,7 +8929,7 @@
       <c r="AO148" s="5"/>
       <c r="AP148" s="5"/>
     </row>
-    <row r="149" spans="1:42" ht="17.350000000000001">
+    <row r="149" spans="1:42" ht="18">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -8938,7 +8959,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="10"/>
       <c r="AC149" s="10"/>
-      <c r="AD149" s="46"/>
+      <c r="AD149" s="42"/>
       <c r="AE149" s="10"/>
       <c r="AF149" s="11"/>
       <c r="AG149" s="5"/>
@@ -8952,7 +8973,7 @@
       <c r="AO149" s="5"/>
       <c r="AP149" s="5"/>
     </row>
-    <row r="150" spans="1:42" ht="17.350000000000001">
+    <row r="150" spans="1:42" ht="18">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
@@ -8982,7 +9003,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="10"/>
       <c r="AC150" s="10"/>
-      <c r="AD150" s="46"/>
+      <c r="AD150" s="42"/>
       <c r="AE150" s="10"/>
       <c r="AF150" s="11"/>
       <c r="AG150" s="5"/>
@@ -8996,7 +9017,7 @@
       <c r="AO150" s="5"/>
       <c r="AP150" s="5"/>
     </row>
-    <row r="151" spans="1:42" ht="17.350000000000001">
+    <row r="151" spans="1:42" ht="18">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
@@ -9026,7 +9047,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="10"/>
       <c r="AC151" s="10"/>
-      <c r="AD151" s="46"/>
+      <c r="AD151" s="42"/>
       <c r="AE151" s="10"/>
       <c r="AF151" s="11"/>
       <c r="AG151" s="5"/>
@@ -9040,7 +9061,7 @@
       <c r="AO151" s="5"/>
       <c r="AP151" s="5"/>
     </row>
-    <row r="152" spans="1:42" ht="17.350000000000001">
+    <row r="152" spans="1:42" ht="18">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
@@ -9070,7 +9091,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="10"/>
       <c r="AC152" s="10"/>
-      <c r="AD152" s="46"/>
+      <c r="AD152" s="42"/>
       <c r="AE152" s="10"/>
       <c r="AF152" s="11"/>
       <c r="AG152" s="5"/>
@@ -9084,7 +9105,7 @@
       <c r="AO152" s="5"/>
       <c r="AP152" s="5"/>
     </row>
-    <row r="153" spans="1:42" ht="17.350000000000001">
+    <row r="153" spans="1:42" ht="18">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -9114,7 +9135,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="10"/>
       <c r="AC153" s="10"/>
-      <c r="AD153" s="46"/>
+      <c r="AD153" s="42"/>
       <c r="AE153" s="10"/>
       <c r="AF153" s="11"/>
       <c r="AG153" s="5"/>
@@ -9128,7 +9149,7 @@
       <c r="AO153" s="5"/>
       <c r="AP153" s="5"/>
     </row>
-    <row r="154" spans="1:42" ht="17.350000000000001">
+    <row r="154" spans="1:42" ht="18">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
@@ -9158,7 +9179,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="10"/>
       <c r="AC154" s="10"/>
-      <c r="AD154" s="46"/>
+      <c r="AD154" s="42"/>
       <c r="AE154" s="10"/>
       <c r="AF154" s="11"/>
       <c r="AG154" s="5"/>
@@ -9172,7 +9193,7 @@
       <c r="AO154" s="5"/>
       <c r="AP154" s="5"/>
     </row>
-    <row r="155" spans="1:42" ht="17.350000000000001">
+    <row r="155" spans="1:42" ht="18">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
@@ -9202,7 +9223,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="10"/>
       <c r="AC155" s="10"/>
-      <c r="AD155" s="46"/>
+      <c r="AD155" s="42"/>
       <c r="AE155" s="10"/>
       <c r="AF155" s="11"/>
       <c r="AG155" s="5"/>
@@ -9216,7 +9237,7 @@
       <c r="AO155" s="5"/>
       <c r="AP155" s="5"/>
     </row>
-    <row r="156" spans="1:42" ht="17.350000000000001">
+    <row r="156" spans="1:42" ht="18">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
@@ -9246,7 +9267,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="10"/>
       <c r="AC156" s="10"/>
-      <c r="AD156" s="46"/>
+      <c r="AD156" s="42"/>
       <c r="AE156" s="10"/>
       <c r="AF156" s="11"/>
       <c r="AG156" s="5"/>
@@ -9260,7 +9281,7 @@
       <c r="AO156" s="5"/>
       <c r="AP156" s="5"/>
     </row>
-    <row r="157" spans="1:42" ht="17.350000000000001">
+    <row r="157" spans="1:42" ht="18">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -9290,7 +9311,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="10"/>
       <c r="AC157" s="10"/>
-      <c r="AD157" s="46"/>
+      <c r="AD157" s="42"/>
       <c r="AE157" s="10"/>
       <c r="AF157" s="11"/>
       <c r="AG157" s="5"/>
@@ -9304,7 +9325,7 @@
       <c r="AO157" s="5"/>
       <c r="AP157" s="5"/>
     </row>
-    <row r="158" spans="1:42" ht="17.350000000000001">
+    <row r="158" spans="1:42" ht="18">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -9334,7 +9355,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="10"/>
       <c r="AC158" s="10"/>
-      <c r="AD158" s="46"/>
+      <c r="AD158" s="42"/>
       <c r="AE158" s="10"/>
       <c r="AF158" s="11"/>
       <c r="AG158" s="5"/>
@@ -9348,7 +9369,7 @@
       <c r="AO158" s="5"/>
       <c r="AP158" s="5"/>
     </row>
-    <row r="159" spans="1:42" ht="17.350000000000001">
+    <row r="159" spans="1:42" ht="18">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -9378,7 +9399,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="10"/>
       <c r="AC159" s="10"/>
-      <c r="AD159" s="46"/>
+      <c r="AD159" s="42"/>
       <c r="AE159" s="10"/>
       <c r="AF159" s="11"/>
       <c r="AG159" s="5"/>
@@ -9392,7 +9413,7 @@
       <c r="AO159" s="5"/>
       <c r="AP159" s="5"/>
     </row>
-    <row r="160" spans="1:42" ht="17.350000000000001">
+    <row r="160" spans="1:42" ht="18">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -9422,7 +9443,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="10"/>
-      <c r="AD160" s="46"/>
+      <c r="AD160" s="42"/>
       <c r="AE160" s="10"/>
       <c r="AF160" s="11"/>
       <c r="AG160" s="5"/>
@@ -9436,7 +9457,7 @@
       <c r="AO160" s="5"/>
       <c r="AP160" s="5"/>
     </row>
-    <row r="161" spans="1:42" ht="17.350000000000001">
+    <row r="161" spans="1:42" ht="18">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -9466,7 +9487,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="10"/>
       <c r="AC161" s="10"/>
-      <c r="AD161" s="46"/>
+      <c r="AD161" s="42"/>
       <c r="AE161" s="10"/>
       <c r="AF161" s="11"/>
       <c r="AG161" s="5"/>
@@ -9480,7 +9501,7 @@
       <c r="AO161" s="5"/>
       <c r="AP161" s="5"/>
     </row>
-    <row r="162" spans="1:42" ht="17.350000000000001">
+    <row r="162" spans="1:42" ht="18">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -9510,7 +9531,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="10"/>
       <c r="AC162" s="10"/>
-      <c r="AD162" s="46"/>
+      <c r="AD162" s="42"/>
       <c r="AE162" s="10"/>
       <c r="AF162" s="11"/>
       <c r="AG162" s="5"/>
@@ -9524,7 +9545,7 @@
       <c r="AO162" s="5"/>
       <c r="AP162" s="5"/>
     </row>
-    <row r="163" spans="1:42" ht="17.350000000000001">
+    <row r="163" spans="1:42" ht="18">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -9554,7 +9575,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="10"/>
       <c r="AC163" s="10"/>
-      <c r="AD163" s="46"/>
+      <c r="AD163" s="42"/>
       <c r="AE163" s="10"/>
       <c r="AF163" s="11"/>
       <c r="AG163" s="5"/>
@@ -9568,7 +9589,7 @@
       <c r="AO163" s="5"/>
       <c r="AP163" s="5"/>
     </row>
-    <row r="164" spans="1:42" ht="17.350000000000001">
+    <row r="164" spans="1:42" ht="18">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -9598,7 +9619,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="10"/>
       <c r="AC164" s="10"/>
-      <c r="AD164" s="46"/>
+      <c r="AD164" s="42"/>
       <c r="AE164" s="10"/>
       <c r="AF164" s="11"/>
       <c r="AG164" s="5"/>
@@ -9612,7 +9633,7 @@
       <c r="AO164" s="5"/>
       <c r="AP164" s="5"/>
     </row>
-    <row r="165" spans="1:42" ht="17.350000000000001">
+    <row r="165" spans="1:42" ht="18">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -9642,7 +9663,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="10"/>
       <c r="AC165" s="10"/>
-      <c r="AD165" s="46"/>
+      <c r="AD165" s="42"/>
       <c r="AE165" s="10"/>
       <c r="AF165" s="11"/>
       <c r="AG165" s="5"/>
@@ -9656,7 +9677,7 @@
       <c r="AO165" s="5"/>
       <c r="AP165" s="5"/>
     </row>
-    <row r="166" spans="1:42" ht="17.350000000000001">
+    <row r="166" spans="1:42" ht="18">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -9686,7 +9707,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="10"/>
       <c r="AC166" s="10"/>
-      <c r="AD166" s="46"/>
+      <c r="AD166" s="42"/>
       <c r="AE166" s="10"/>
       <c r="AF166" s="11"/>
       <c r="AG166" s="5"/>
@@ -9700,7 +9721,7 @@
       <c r="AO166" s="5"/>
       <c r="AP166" s="5"/>
     </row>
-    <row r="167" spans="1:42" ht="17.350000000000001">
+    <row r="167" spans="1:42" ht="18">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -9730,7 +9751,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="10"/>
       <c r="AC167" s="10"/>
-      <c r="AD167" s="46"/>
+      <c r="AD167" s="42"/>
       <c r="AE167" s="10"/>
       <c r="AF167" s="11"/>
       <c r="AG167" s="5"/>
@@ -9744,7 +9765,7 @@
       <c r="AO167" s="5"/>
       <c r="AP167" s="5"/>
     </row>
-    <row r="168" spans="1:42" ht="17.350000000000001">
+    <row r="168" spans="1:42" ht="18">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -9774,7 +9795,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="10"/>
       <c r="AC168" s="10"/>
-      <c r="AD168" s="46"/>
+      <c r="AD168" s="42"/>
       <c r="AE168" s="10"/>
       <c r="AF168" s="11"/>
       <c r="AG168" s="5"/>
@@ -9788,7 +9809,7 @@
       <c r="AO168" s="5"/>
       <c r="AP168" s="5"/>
     </row>
-    <row r="169" spans="1:42" ht="17.350000000000001">
+    <row r="169" spans="1:42" ht="18">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -9818,7 +9839,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="10"/>
       <c r="AC169" s="10"/>
-      <c r="AD169" s="46"/>
+      <c r="AD169" s="42"/>
       <c r="AE169" s="10"/>
       <c r="AF169" s="11"/>
       <c r="AG169" s="5"/>
@@ -9832,7 +9853,7 @@
       <c r="AO169" s="5"/>
       <c r="AP169" s="5"/>
     </row>
-    <row r="170" spans="1:42" ht="17.350000000000001">
+    <row r="170" spans="1:42" ht="18">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -9862,7 +9883,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="10"/>
       <c r="AC170" s="10"/>
-      <c r="AD170" s="46"/>
+      <c r="AD170" s="42"/>
       <c r="AE170" s="10"/>
       <c r="AF170" s="11"/>
       <c r="AG170" s="5"/>
@@ -9876,7 +9897,7 @@
       <c r="AO170" s="5"/>
       <c r="AP170" s="5"/>
     </row>
-    <row r="171" spans="1:42" ht="17.350000000000001">
+    <row r="171" spans="1:42" ht="18">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -9906,7 +9927,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="10"/>
       <c r="AC171" s="10"/>
-      <c r="AD171" s="46"/>
+      <c r="AD171" s="42"/>
       <c r="AE171" s="10"/>
       <c r="AF171" s="11"/>
       <c r="AG171" s="5"/>
@@ -9920,7 +9941,7 @@
       <c r="AO171" s="5"/>
       <c r="AP171" s="5"/>
     </row>
-    <row r="172" spans="1:42" ht="17.350000000000001">
+    <row r="172" spans="1:42" ht="18">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -9950,7 +9971,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="10"/>
       <c r="AC172" s="10"/>
-      <c r="AD172" s="46"/>
+      <c r="AD172" s="42"/>
       <c r="AE172" s="10"/>
       <c r="AF172" s="11"/>
       <c r="AG172" s="5"/>
@@ -9964,7 +9985,7 @@
       <c r="AO172" s="5"/>
       <c r="AP172" s="5"/>
     </row>
-    <row r="173" spans="1:42" ht="17.350000000000001">
+    <row r="173" spans="1:42" ht="18">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -9994,7 +10015,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="10"/>
       <c r="AC173" s="10"/>
-      <c r="AD173" s="46"/>
+      <c r="AD173" s="42"/>
       <c r="AE173" s="10"/>
       <c r="AF173" s="11"/>
       <c r="AG173" s="5"/>
@@ -10008,7 +10029,7 @@
       <c r="AO173" s="5"/>
       <c r="AP173" s="5"/>
     </row>
-    <row r="174" spans="1:42" ht="17.350000000000001">
+    <row r="174" spans="1:42" ht="18">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -10038,7 +10059,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
-      <c r="AD174" s="46"/>
+      <c r="AD174" s="42"/>
       <c r="AE174" s="10"/>
       <c r="AF174" s="11"/>
       <c r="AG174" s="5"/>
@@ -10052,7 +10073,7 @@
       <c r="AO174" s="5"/>
       <c r="AP174" s="5"/>
     </row>
-    <row r="175" spans="1:42" ht="17.350000000000001">
+    <row r="175" spans="1:42" ht="18">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -10082,7 +10103,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="10"/>
       <c r="AC175" s="10"/>
-      <c r="AD175" s="46"/>
+      <c r="AD175" s="42"/>
       <c r="AE175" s="10"/>
       <c r="AF175" s="11"/>
       <c r="AG175" s="5"/>
@@ -10096,7 +10117,7 @@
       <c r="AO175" s="5"/>
       <c r="AP175" s="5"/>
     </row>
-    <row r="176" spans="1:42" ht="17.350000000000001">
+    <row r="176" spans="1:42" ht="18">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -10126,7 +10147,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
-      <c r="AD176" s="46"/>
+      <c r="AD176" s="42"/>
       <c r="AE176" s="10"/>
       <c r="AF176" s="11"/>
       <c r="AG176" s="5"/>
@@ -10140,7 +10161,7 @@
       <c r="AO176" s="5"/>
       <c r="AP176" s="5"/>
     </row>
-    <row r="177" spans="1:42" ht="17.350000000000001">
+    <row r="177" spans="1:42" ht="18">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -10170,7 +10191,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="10"/>
       <c r="AC177" s="10"/>
-      <c r="AD177" s="46"/>
+      <c r="AD177" s="42"/>
       <c r="AE177" s="10"/>
       <c r="AF177" s="11"/>
       <c r="AG177" s="5"/>
@@ -10184,7 +10205,7 @@
       <c r="AO177" s="5"/>
       <c r="AP177" s="5"/>
     </row>
-    <row r="178" spans="1:42" ht="17.350000000000001">
+    <row r="178" spans="1:42" ht="18">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -10214,7 +10235,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="10"/>
       <c r="AC178" s="10"/>
-      <c r="AD178" s="46"/>
+      <c r="AD178" s="42"/>
       <c r="AE178" s="10"/>
       <c r="AF178" s="11"/>
       <c r="AG178" s="5"/>
@@ -10228,7 +10249,7 @@
       <c r="AO178" s="5"/>
       <c r="AP178" s="5"/>
     </row>
-    <row r="179" spans="1:42" ht="17.350000000000001">
+    <row r="179" spans="1:42" ht="18">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -10258,7 +10279,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="10"/>
       <c r="AC179" s="10"/>
-      <c r="AD179" s="46"/>
+      <c r="AD179" s="42"/>
       <c r="AE179" s="10"/>
       <c r="AF179" s="11"/>
       <c r="AG179" s="5"/>
@@ -10272,7 +10293,7 @@
       <c r="AO179" s="5"/>
       <c r="AP179" s="5"/>
     </row>
-    <row r="180" spans="1:42" ht="17.350000000000001">
+    <row r="180" spans="1:42" ht="18">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -10302,7 +10323,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="10"/>
       <c r="AC180" s="10"/>
-      <c r="AD180" s="46"/>
+      <c r="AD180" s="42"/>
       <c r="AE180" s="10"/>
       <c r="AF180" s="11"/>
       <c r="AG180" s="5"/>
@@ -10316,7 +10337,7 @@
       <c r="AO180" s="5"/>
       <c r="AP180" s="5"/>
     </row>
-    <row r="181" spans="1:42" ht="17.350000000000001">
+    <row r="181" spans="1:42" ht="18">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -10346,7 +10367,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="10"/>
       <c r="AC181" s="10"/>
-      <c r="AD181" s="46"/>
+      <c r="AD181" s="42"/>
       <c r="AE181" s="10"/>
       <c r="AF181" s="11"/>
       <c r="AG181" s="5"/>
@@ -10360,7 +10381,7 @@
       <c r="AO181" s="5"/>
       <c r="AP181" s="5"/>
     </row>
-    <row r="182" spans="1:42" ht="17.350000000000001">
+    <row r="182" spans="1:42" ht="18">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -10390,7 +10411,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="10"/>
       <c r="AC182" s="10"/>
-      <c r="AD182" s="46"/>
+      <c r="AD182" s="42"/>
       <c r="AE182" s="10"/>
       <c r="AF182" s="11"/>
       <c r="AG182" s="5"/>
@@ -10404,7 +10425,7 @@
       <c r="AO182" s="5"/>
       <c r="AP182" s="5"/>
     </row>
-    <row r="183" spans="1:42" ht="17.350000000000001">
+    <row r="183" spans="1:42" ht="18">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -10434,7 +10455,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="10"/>
       <c r="AC183" s="10"/>
-      <c r="AD183" s="46"/>
+      <c r="AD183" s="42"/>
       <c r="AE183" s="10"/>
       <c r="AF183" s="11"/>
       <c r="AG183" s="5"/>
@@ -10448,7 +10469,7 @@
       <c r="AO183" s="5"/>
       <c r="AP183" s="5"/>
     </row>
-    <row r="184" spans="1:42" ht="17.350000000000001">
+    <row r="184" spans="1:42" ht="18">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -10478,7 +10499,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="10"/>
       <c r="AC184" s="10"/>
-      <c r="AD184" s="46"/>
+      <c r="AD184" s="42"/>
       <c r="AE184" s="10"/>
       <c r="AF184" s="11"/>
       <c r="AG184" s="5"/>
@@ -10492,7 +10513,7 @@
       <c r="AO184" s="5"/>
       <c r="AP184" s="5"/>
     </row>
-    <row r="185" spans="1:42" ht="17.350000000000001">
+    <row r="185" spans="1:42" ht="18">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -10522,7 +10543,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="10"/>
       <c r="AC185" s="10"/>
-      <c r="AD185" s="46"/>
+      <c r="AD185" s="42"/>
       <c r="AE185" s="10"/>
       <c r="AF185" s="11"/>
       <c r="AG185" s="5"/>
@@ -10536,7 +10557,7 @@
       <c r="AO185" s="5"/>
       <c r="AP185" s="5"/>
     </row>
-    <row r="186" spans="1:42" ht="17.350000000000001">
+    <row r="186" spans="1:42" ht="18">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -10566,7 +10587,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="10"/>
       <c r="AC186" s="10"/>
-      <c r="AD186" s="46"/>
+      <c r="AD186" s="42"/>
       <c r="AE186" s="10"/>
       <c r="AF186" s="11"/>
       <c r="AG186" s="5"/>
@@ -10580,7 +10601,7 @@
       <c r="AO186" s="5"/>
       <c r="AP186" s="5"/>
     </row>
-    <row r="187" spans="1:42" ht="17.350000000000001">
+    <row r="187" spans="1:42" ht="18">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -10610,7 +10631,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="10"/>
       <c r="AC187" s="10"/>
-      <c r="AD187" s="46"/>
+      <c r="AD187" s="42"/>
       <c r="AE187" s="10"/>
       <c r="AF187" s="11"/>
       <c r="AG187" s="5"/>
@@ -10624,7 +10645,7 @@
       <c r="AO187" s="5"/>
       <c r="AP187" s="5"/>
     </row>
-    <row r="188" spans="1:42" ht="17.350000000000001">
+    <row r="188" spans="1:42" ht="18">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -10654,7 +10675,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
-      <c r="AD188" s="46"/>
+      <c r="AD188" s="42"/>
       <c r="AE188" s="10"/>
       <c r="AF188" s="11"/>
       <c r="AG188" s="5"/>
@@ -10668,7 +10689,7 @@
       <c r="AO188" s="5"/>
       <c r="AP188" s="5"/>
     </row>
-    <row r="189" spans="1:42" ht="17.350000000000001">
+    <row r="189" spans="1:42" ht="18">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -10698,7 +10719,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="10"/>
       <c r="AC189" s="10"/>
-      <c r="AD189" s="46"/>
+      <c r="AD189" s="42"/>
       <c r="AE189" s="10"/>
       <c r="AF189" s="11"/>
       <c r="AG189" s="5"/>
@@ -10712,7 +10733,7 @@
       <c r="AO189" s="5"/>
       <c r="AP189" s="5"/>
     </row>
-    <row r="190" spans="1:42" ht="17.350000000000001">
+    <row r="190" spans="1:42" ht="18">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -10742,7 +10763,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="10"/>
       <c r="AC190" s="10"/>
-      <c r="AD190" s="46"/>
+      <c r="AD190" s="42"/>
       <c r="AE190" s="10"/>
       <c r="AF190" s="11"/>
       <c r="AG190" s="5"/>
@@ -10756,7 +10777,7 @@
       <c r="AO190" s="5"/>
       <c r="AP190" s="5"/>
     </row>
-    <row r="191" spans="1:42" ht="17.350000000000001">
+    <row r="191" spans="1:42" ht="18">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -10786,7 +10807,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="10"/>
       <c r="AC191" s="10"/>
-      <c r="AD191" s="46"/>
+      <c r="AD191" s="42"/>
       <c r="AE191" s="10"/>
       <c r="AF191" s="11"/>
       <c r="AG191" s="5"/>
@@ -10800,7 +10821,7 @@
       <c r="AO191" s="5"/>
       <c r="AP191" s="5"/>
     </row>
-    <row r="192" spans="1:42" ht="17.350000000000001">
+    <row r="192" spans="1:42" ht="18">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -10830,7 +10851,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="10"/>
       <c r="AC192" s="10"/>
-      <c r="AD192" s="46"/>
+      <c r="AD192" s="42"/>
       <c r="AE192" s="10"/>
       <c r="AF192" s="11"/>
       <c r="AG192" s="5"/>
@@ -10844,7 +10865,7 @@
       <c r="AO192" s="5"/>
       <c r="AP192" s="5"/>
     </row>
-    <row r="193" spans="1:42" ht="17.350000000000001">
+    <row r="193" spans="1:42" ht="18">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -10874,7 +10895,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="10"/>
       <c r="AC193" s="10"/>
-      <c r="AD193" s="46"/>
+      <c r="AD193" s="42"/>
       <c r="AE193" s="10"/>
       <c r="AF193" s="11"/>
       <c r="AG193" s="5"/>
@@ -10888,7 +10909,7 @@
       <c r="AO193" s="5"/>
       <c r="AP193" s="5"/>
     </row>
-    <row r="194" spans="1:42" ht="17.350000000000001">
+    <row r="194" spans="1:42" ht="18">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -10918,7 +10939,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="10"/>
       <c r="AC194" s="10"/>
-      <c r="AD194" s="46"/>
+      <c r="AD194" s="42"/>
       <c r="AE194" s="10"/>
       <c r="AF194" s="11"/>
       <c r="AG194" s="5"/>
@@ -10932,7 +10953,7 @@
       <c r="AO194" s="5"/>
       <c r="AP194" s="5"/>
     </row>
-    <row r="195" spans="1:42" ht="17.350000000000001">
+    <row r="195" spans="1:42" ht="18">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -10962,7 +10983,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="10"/>
       <c r="AC195" s="10"/>
-      <c r="AD195" s="46"/>
+      <c r="AD195" s="42"/>
       <c r="AE195" s="10"/>
       <c r="AF195" s="11"/>
       <c r="AG195" s="5"/>
@@ -10976,7 +10997,7 @@
       <c r="AO195" s="5"/>
       <c r="AP195" s="5"/>
     </row>
-    <row r="196" spans="1:42" ht="17.350000000000001">
+    <row r="196" spans="1:42" ht="18">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -11006,7 +11027,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="10"/>
       <c r="AC196" s="10"/>
-      <c r="AD196" s="46"/>
+      <c r="AD196" s="42"/>
       <c r="AE196" s="10"/>
       <c r="AF196" s="11"/>
       <c r="AG196" s="5"/>
@@ -11020,7 +11041,7 @@
       <c r="AO196" s="5"/>
       <c r="AP196" s="5"/>
     </row>
-    <row r="197" spans="1:42" ht="17.350000000000001">
+    <row r="197" spans="1:42" ht="18">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -11050,7 +11071,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="10"/>
       <c r="AC197" s="10"/>
-      <c r="AD197" s="46"/>
+      <c r="AD197" s="42"/>
       <c r="AE197" s="10"/>
       <c r="AF197" s="11"/>
       <c r="AG197" s="5"/>
@@ -11064,7 +11085,7 @@
       <c r="AO197" s="5"/>
       <c r="AP197" s="5"/>
     </row>
-    <row r="198" spans="1:42" ht="17.350000000000001">
+    <row r="198" spans="1:42" ht="18">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -11094,7 +11115,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="10"/>
       <c r="AC198" s="10"/>
-      <c r="AD198" s="46"/>
+      <c r="AD198" s="42"/>
       <c r="AE198" s="10"/>
       <c r="AF198" s="11"/>
       <c r="AG198" s="5"/>
@@ -11108,7 +11129,7 @@
       <c r="AO198" s="5"/>
       <c r="AP198" s="5"/>
     </row>
-    <row r="199" spans="1:42" ht="17.350000000000001">
+    <row r="199" spans="1:42" ht="18">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -11138,7 +11159,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="10"/>
       <c r="AC199" s="10"/>
-      <c r="AD199" s="46"/>
+      <c r="AD199" s="42"/>
       <c r="AE199" s="10"/>
       <c r="AF199" s="11"/>
       <c r="AG199" s="5"/>
@@ -11152,7 +11173,7 @@
       <c r="AO199" s="5"/>
       <c r="AP199" s="5"/>
     </row>
-    <row r="200" spans="1:42" ht="17.350000000000001">
+    <row r="200" spans="1:42" ht="18">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -11182,7 +11203,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="10"/>
       <c r="AC200" s="10"/>
-      <c r="AD200" s="46"/>
+      <c r="AD200" s="42"/>
       <c r="AE200" s="10"/>
       <c r="AF200" s="11"/>
       <c r="AG200" s="5"/>
@@ -11196,7 +11217,7 @@
       <c r="AO200" s="5"/>
       <c r="AP200" s="5"/>
     </row>
-    <row r="201" spans="1:42" ht="17.350000000000001">
+    <row r="201" spans="1:42" ht="18">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -11226,7 +11247,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="10"/>
       <c r="AC201" s="10"/>
-      <c r="AD201" s="46"/>
+      <c r="AD201" s="42"/>
       <c r="AE201" s="10"/>
       <c r="AF201" s="11"/>
       <c r="AG201" s="5"/>
@@ -11240,7 +11261,7 @@
       <c r="AO201" s="5"/>
       <c r="AP201" s="5"/>
     </row>
-    <row r="202" spans="1:42" ht="17.350000000000001">
+    <row r="202" spans="1:42" ht="18">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -11270,7 +11291,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="10"/>
       <c r="AC202" s="10"/>
-      <c r="AD202" s="46"/>
+      <c r="AD202" s="42"/>
       <c r="AE202" s="10"/>
       <c r="AF202" s="11"/>
       <c r="AG202" s="5"/>
@@ -11284,7 +11305,7 @@
       <c r="AO202" s="5"/>
       <c r="AP202" s="5"/>
     </row>
-    <row r="203" spans="1:42" ht="17.350000000000001">
+    <row r="203" spans="1:42" ht="18">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -11314,7 +11335,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="10"/>
       <c r="AC203" s="10"/>
-      <c r="AD203" s="46"/>
+      <c r="AD203" s="42"/>
       <c r="AE203" s="10"/>
       <c r="AF203" s="11"/>
       <c r="AG203" s="5"/>
@@ -11328,7 +11349,7 @@
       <c r="AO203" s="5"/>
       <c r="AP203" s="5"/>
     </row>
-    <row r="204" spans="1:42" ht="17.350000000000001">
+    <row r="204" spans="1:42" ht="18">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -11358,7 +11379,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="10"/>
       <c r="AC204" s="10"/>
-      <c r="AD204" s="46"/>
+      <c r="AD204" s="42"/>
       <c r="AE204" s="10"/>
       <c r="AF204" s="11"/>
       <c r="AG204" s="5"/>
@@ -11372,7 +11393,7 @@
       <c r="AO204" s="5"/>
       <c r="AP204" s="5"/>
     </row>
-    <row r="205" spans="1:42" ht="17.350000000000001">
+    <row r="205" spans="1:42" ht="18">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -11402,7 +11423,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="10"/>
       <c r="AC205" s="10"/>
-      <c r="AD205" s="46"/>
+      <c r="AD205" s="42"/>
       <c r="AE205" s="10"/>
       <c r="AF205" s="11"/>
       <c r="AG205" s="5"/>
@@ -11416,7 +11437,7 @@
       <c r="AO205" s="5"/>
       <c r="AP205" s="5"/>
     </row>
-    <row r="206" spans="1:42" ht="17.350000000000001">
+    <row r="206" spans="1:42" ht="18">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -11446,7 +11467,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="10"/>
       <c r="AC206" s="10"/>
-      <c r="AD206" s="46"/>
+      <c r="AD206" s="42"/>
       <c r="AE206" s="10"/>
       <c r="AF206" s="11"/>
       <c r="AG206" s="5"/>
@@ -11460,7 +11481,7 @@
       <c r="AO206" s="5"/>
       <c r="AP206" s="5"/>
     </row>
-    <row r="207" spans="1:42" ht="17.350000000000001">
+    <row r="207" spans="1:42" ht="18">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -11490,7 +11511,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="10"/>
       <c r="AC207" s="10"/>
-      <c r="AD207" s="46"/>
+      <c r="AD207" s="42"/>
       <c r="AE207" s="10"/>
       <c r="AF207" s="11"/>
       <c r="AG207" s="5"/>
@@ -11504,7 +11525,7 @@
       <c r="AO207" s="5"/>
       <c r="AP207" s="5"/>
     </row>
-    <row r="208" spans="1:42" ht="17.350000000000001">
+    <row r="208" spans="1:42" ht="18">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -11534,7 +11555,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="10"/>
       <c r="AC208" s="10"/>
-      <c r="AD208" s="46"/>
+      <c r="AD208" s="42"/>
       <c r="AE208" s="10"/>
       <c r="AF208" s="11"/>
       <c r="AG208" s="5"/>
@@ -11548,7 +11569,7 @@
       <c r="AO208" s="5"/>
       <c r="AP208" s="5"/>
     </row>
-    <row r="209" spans="1:42" ht="17.350000000000001">
+    <row r="209" spans="1:42" ht="18">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -11578,7 +11599,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="10"/>
       <c r="AC209" s="10"/>
-      <c r="AD209" s="46"/>
+      <c r="AD209" s="42"/>
       <c r="AE209" s="10"/>
       <c r="AF209" s="11"/>
       <c r="AG209" s="5"/>
@@ -11592,7 +11613,7 @@
       <c r="AO209" s="5"/>
       <c r="AP209" s="5"/>
     </row>
-    <row r="210" spans="1:42" ht="17.350000000000001">
+    <row r="210" spans="1:42" ht="18">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -11622,7 +11643,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="10"/>
       <c r="AC210" s="10"/>
-      <c r="AD210" s="46"/>
+      <c r="AD210" s="42"/>
       <c r="AE210" s="10"/>
       <c r="AF210" s="11"/>
       <c r="AG210" s="5"/>
@@ -11636,7 +11657,7 @@
       <c r="AO210" s="5"/>
       <c r="AP210" s="5"/>
     </row>
-    <row r="211" spans="1:42" ht="17.350000000000001">
+    <row r="211" spans="1:42" ht="18">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -11666,7 +11687,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="10"/>
       <c r="AC211" s="10"/>
-      <c r="AD211" s="46"/>
+      <c r="AD211" s="42"/>
       <c r="AE211" s="10"/>
       <c r="AF211" s="11"/>
       <c r="AG211" s="5"/>
@@ -11680,7 +11701,7 @@
       <c r="AO211" s="5"/>
       <c r="AP211" s="5"/>
     </row>
-    <row r="212" spans="1:42" ht="17.350000000000001">
+    <row r="212" spans="1:42" ht="18">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -11710,7 +11731,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="10"/>
       <c r="AC212" s="10"/>
-      <c r="AD212" s="46"/>
+      <c r="AD212" s="42"/>
       <c r="AE212" s="10"/>
       <c r="AF212" s="11"/>
       <c r="AG212" s="5"/>
@@ -11724,7 +11745,7 @@
       <c r="AO212" s="5"/>
       <c r="AP212" s="5"/>
     </row>
-    <row r="213" spans="1:42" ht="17.350000000000001">
+    <row r="213" spans="1:42" ht="18">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -11754,7 +11775,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="10"/>
       <c r="AC213" s="10"/>
-      <c r="AD213" s="46"/>
+      <c r="AD213" s="42"/>
       <c r="AE213" s="10"/>
       <c r="AF213" s="11"/>
       <c r="AG213" s="5"/>
@@ -11768,7 +11789,7 @@
       <c r="AO213" s="5"/>
       <c r="AP213" s="5"/>
     </row>
-    <row r="214" spans="1:42" ht="17.350000000000001">
+    <row r="214" spans="1:42" ht="18">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -11798,7 +11819,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
-      <c r="AD214" s="46"/>
+      <c r="AD214" s="42"/>
       <c r="AE214" s="10"/>
       <c r="AF214" s="11"/>
       <c r="AG214" s="5"/>
@@ -11812,7 +11833,7 @@
       <c r="AO214" s="5"/>
       <c r="AP214" s="5"/>
     </row>
-    <row r="215" spans="1:42" ht="17.350000000000001">
+    <row r="215" spans="1:42" ht="18">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -11842,7 +11863,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="10"/>
       <c r="AC215" s="10"/>
-      <c r="AD215" s="46"/>
+      <c r="AD215" s="42"/>
       <c r="AE215" s="10"/>
       <c r="AF215" s="11"/>
       <c r="AG215" s="5"/>
@@ -11856,7 +11877,7 @@
       <c r="AO215" s="5"/>
       <c r="AP215" s="5"/>
     </row>
-    <row r="216" spans="1:42" ht="17.350000000000001">
+    <row r="216" spans="1:42" ht="18">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -11886,7 +11907,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="10"/>
       <c r="AC216" s="10"/>
-      <c r="AD216" s="46"/>
+      <c r="AD216" s="42"/>
       <c r="AE216" s="10"/>
       <c r="AF216" s="11"/>
       <c r="AG216" s="5"/>
@@ -11900,7 +11921,7 @@
       <c r="AO216" s="5"/>
       <c r="AP216" s="5"/>
     </row>
-    <row r="217" spans="1:42" ht="17.350000000000001">
+    <row r="217" spans="1:42" ht="18">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -11930,7 +11951,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="10"/>
       <c r="AC217" s="10"/>
-      <c r="AD217" s="46"/>
+      <c r="AD217" s="42"/>
       <c r="AE217" s="10"/>
       <c r="AF217" s="11"/>
       <c r="AG217" s="5"/>
@@ -11944,7 +11965,7 @@
       <c r="AO217" s="5"/>
       <c r="AP217" s="5"/>
     </row>
-    <row r="218" spans="1:42" ht="17.350000000000001">
+    <row r="218" spans="1:42" ht="18">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -11974,7 +11995,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="10"/>
       <c r="AC218" s="10"/>
-      <c r="AD218" s="46"/>
+      <c r="AD218" s="42"/>
       <c r="AE218" s="10"/>
       <c r="AF218" s="11"/>
       <c r="AG218" s="5"/>
@@ -11988,7 +12009,7 @@
       <c r="AO218" s="5"/>
       <c r="AP218" s="5"/>
     </row>
-    <row r="219" spans="1:42" ht="17.350000000000001">
+    <row r="219" spans="1:42" ht="18">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -12018,7 +12039,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="10"/>
       <c r="AC219" s="10"/>
-      <c r="AD219" s="46"/>
+      <c r="AD219" s="42"/>
       <c r="AE219" s="10"/>
       <c r="AF219" s="11"/>
       <c r="AG219" s="5"/>
@@ -12032,7 +12053,7 @@
       <c r="AO219" s="5"/>
       <c r="AP219" s="5"/>
     </row>
-    <row r="220" spans="1:42" ht="17.350000000000001">
+    <row r="220" spans="1:42" ht="18">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -12062,7 +12083,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
-      <c r="AD220" s="46"/>
+      <c r="AD220" s="42"/>
       <c r="AE220" s="10"/>
       <c r="AF220" s="11"/>
       <c r="AG220" s="5"/>
@@ -12076,7 +12097,7 @@
       <c r="AO220" s="5"/>
       <c r="AP220" s="5"/>
     </row>
-    <row r="221" spans="1:42" ht="17.350000000000001">
+    <row r="221" spans="1:42" ht="18">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -12106,7 +12127,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="10"/>
       <c r="AC221" s="10"/>
-      <c r="AD221" s="46"/>
+      <c r="AD221" s="42"/>
       <c r="AE221" s="10"/>
       <c r="AF221" s="11"/>
       <c r="AG221" s="5"/>
@@ -12120,7 +12141,7 @@
       <c r="AO221" s="5"/>
       <c r="AP221" s="5"/>
     </row>
-    <row r="222" spans="1:42" ht="17.350000000000001">
+    <row r="222" spans="1:42" ht="18">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -12150,7 +12171,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="10"/>
       <c r="AC222" s="10"/>
-      <c r="AD222" s="46"/>
+      <c r="AD222" s="42"/>
       <c r="AE222" s="10"/>
       <c r="AF222" s="11"/>
       <c r="AG222" s="5"/>
@@ -12164,7 +12185,7 @@
       <c r="AO222" s="5"/>
       <c r="AP222" s="5"/>
     </row>
-    <row r="223" spans="1:42" ht="17.350000000000001">
+    <row r="223" spans="1:42" ht="18">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -12194,7 +12215,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="10"/>
       <c r="AC223" s="10"/>
-      <c r="AD223" s="46"/>
+      <c r="AD223" s="42"/>
       <c r="AE223" s="10"/>
       <c r="AF223" s="11"/>
       <c r="AG223" s="5"/>
@@ -12208,7 +12229,7 @@
       <c r="AO223" s="5"/>
       <c r="AP223" s="5"/>
     </row>
-    <row r="224" spans="1:42" ht="17.350000000000001">
+    <row r="224" spans="1:42" ht="18">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -12238,7 +12259,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="10"/>
       <c r="AC224" s="10"/>
-      <c r="AD224" s="46"/>
+      <c r="AD224" s="42"/>
       <c r="AE224" s="10"/>
       <c r="AF224" s="11"/>
       <c r="AG224" s="5"/>
@@ -12252,7 +12273,7 @@
       <c r="AO224" s="5"/>
       <c r="AP224" s="5"/>
     </row>
-    <row r="225" spans="1:42" ht="17.350000000000001">
+    <row r="225" spans="1:42" ht="18">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -12282,7 +12303,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="10"/>
       <c r="AC225" s="10"/>
-      <c r="AD225" s="46"/>
+      <c r="AD225" s="42"/>
       <c r="AE225" s="10"/>
       <c r="AF225" s="11"/>
       <c r="AG225" s="5"/>
@@ -12296,7 +12317,7 @@
       <c r="AO225" s="5"/>
       <c r="AP225" s="5"/>
     </row>
-    <row r="226" spans="1:42" ht="17.350000000000001">
+    <row r="226" spans="1:42" ht="18">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -12326,7 +12347,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
-      <c r="AD226" s="46"/>
+      <c r="AD226" s="42"/>
       <c r="AE226" s="10"/>
       <c r="AF226" s="11"/>
       <c r="AG226" s="5"/>
@@ -12340,7 +12361,7 @@
       <c r="AO226" s="5"/>
       <c r="AP226" s="5"/>
     </row>
-    <row r="227" spans="1:42" ht="17.350000000000001">
+    <row r="227" spans="1:42" ht="18">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -12370,7 +12391,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="10"/>
       <c r="AC227" s="10"/>
-      <c r="AD227" s="46"/>
+      <c r="AD227" s="42"/>
       <c r="AE227" s="10"/>
       <c r="AF227" s="11"/>
       <c r="AG227" s="5"/>
@@ -12384,7 +12405,7 @@
       <c r="AO227" s="5"/>
       <c r="AP227" s="5"/>
     </row>
-    <row r="228" spans="1:42" ht="17.350000000000001">
+    <row r="228" spans="1:42" ht="18">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -12414,7 +12435,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
-      <c r="AD228" s="46"/>
+      <c r="AD228" s="42"/>
       <c r="AE228" s="10"/>
       <c r="AF228" s="11"/>
       <c r="AG228" s="5"/>
@@ -12428,7 +12449,7 @@
       <c r="AO228" s="5"/>
       <c r="AP228" s="5"/>
     </row>
-    <row r="229" spans="1:42" ht="17.350000000000001">
+    <row r="229" spans="1:42" ht="18">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -12458,7 +12479,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="10"/>
       <c r="AC229" s="10"/>
-      <c r="AD229" s="46"/>
+      <c r="AD229" s="42"/>
       <c r="AE229" s="10"/>
       <c r="AF229" s="11"/>
       <c r="AG229" s="5"/>
@@ -12472,7 +12493,7 @@
       <c r="AO229" s="5"/>
       <c r="AP229" s="5"/>
     </row>
-    <row r="230" spans="1:42" ht="17.350000000000001">
+    <row r="230" spans="1:42" ht="18">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -12502,7 +12523,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="10"/>
       <c r="AC230" s="10"/>
-      <c r="AD230" s="46"/>
+      <c r="AD230" s="42"/>
       <c r="AE230" s="10"/>
       <c r="AF230" s="11"/>
       <c r="AG230" s="5"/>
@@ -12516,7 +12537,7 @@
       <c r="AO230" s="5"/>
       <c r="AP230" s="5"/>
     </row>
-    <row r="231" spans="1:42" ht="17.350000000000001">
+    <row r="231" spans="1:42" ht="18">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -12546,7 +12567,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="10"/>
       <c r="AC231" s="10"/>
-      <c r="AD231" s="46"/>
+      <c r="AD231" s="42"/>
       <c r="AE231" s="10"/>
       <c r="AF231" s="11"/>
       <c r="AG231" s="5"/>
@@ -12560,7 +12581,7 @@
       <c r="AO231" s="5"/>
       <c r="AP231" s="5"/>
     </row>
-    <row r="232" spans="1:42" ht="17.350000000000001">
+    <row r="232" spans="1:42" ht="18">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -12590,7 +12611,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="10"/>
       <c r="AC232" s="10"/>
-      <c r="AD232" s="46"/>
+      <c r="AD232" s="42"/>
       <c r="AE232" s="10"/>
       <c r="AF232" s="11"/>
       <c r="AG232" s="5"/>
@@ -12604,7 +12625,7 @@
       <c r="AO232" s="5"/>
       <c r="AP232" s="5"/>
     </row>
-    <row r="233" spans="1:42" ht="17.350000000000001">
+    <row r="233" spans="1:42" ht="18">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -12634,7 +12655,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="10"/>
       <c r="AC233" s="10"/>
-      <c r="AD233" s="46"/>
+      <c r="AD233" s="42"/>
       <c r="AE233" s="10"/>
       <c r="AF233" s="11"/>
       <c r="AG233" s="5"/>
@@ -12648,7 +12669,7 @@
       <c r="AO233" s="5"/>
       <c r="AP233" s="5"/>
     </row>
-    <row r="234" spans="1:42" ht="17.350000000000001">
+    <row r="234" spans="1:42" ht="18">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -12678,7 +12699,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="10"/>
       <c r="AC234" s="10"/>
-      <c r="AD234" s="46"/>
+      <c r="AD234" s="42"/>
       <c r="AE234" s="10"/>
       <c r="AF234" s="11"/>
       <c r="AG234" s="5"/>
@@ -12692,7 +12713,7 @@
       <c r="AO234" s="5"/>
       <c r="AP234" s="5"/>
     </row>
-    <row r="235" spans="1:42" ht="17.350000000000001">
+    <row r="235" spans="1:42" ht="18">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -12722,7 +12743,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="10"/>
       <c r="AC235" s="10"/>
-      <c r="AD235" s="46"/>
+      <c r="AD235" s="42"/>
       <c r="AE235" s="10"/>
       <c r="AF235" s="11"/>
       <c r="AG235" s="5"/>
@@ -12736,7 +12757,7 @@
       <c r="AO235" s="5"/>
       <c r="AP235" s="5"/>
     </row>
-    <row r="236" spans="1:42" ht="17.350000000000001">
+    <row r="236" spans="1:42" ht="18">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -12766,7 +12787,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="10"/>
       <c r="AC236" s="10"/>
-      <c r="AD236" s="46"/>
+      <c r="AD236" s="42"/>
       <c r="AE236" s="10"/>
       <c r="AF236" s="11"/>
       <c r="AG236" s="5"/>
@@ -12780,7 +12801,7 @@
       <c r="AO236" s="5"/>
       <c r="AP236" s="5"/>
     </row>
-    <row r="237" spans="1:42" ht="17.350000000000001">
+    <row r="237" spans="1:42" ht="18">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -12810,7 +12831,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="10"/>
       <c r="AC237" s="10"/>
-      <c r="AD237" s="46"/>
+      <c r="AD237" s="42"/>
       <c r="AE237" s="10"/>
       <c r="AF237" s="11"/>
       <c r="AG237" s="5"/>
@@ -12825,148 +12846,148 @@
       <c r="AP237" s="5"/>
     </row>
     <row r="238" spans="1:42" ht="15.75" customHeight="1">
-      <c r="AD238" s="47"/>
+      <c r="AD238" s="43"/>
     </row>
     <row r="239" spans="1:42" ht="15.75" customHeight="1">
-      <c r="AD239" s="47"/>
+      <c r="AD239" s="43"/>
     </row>
     <row r="240" spans="1:42" ht="15.75" customHeight="1">
-      <c r="AD240" s="47"/>
+      <c r="AD240" s="43"/>
     </row>
     <row r="241" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD241" s="47"/>
+      <c r="AD241" s="43"/>
     </row>
     <row r="242" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD242" s="47"/>
+      <c r="AD242" s="43"/>
     </row>
     <row r="243" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD243" s="47"/>
+      <c r="AD243" s="43"/>
     </row>
     <row r="244" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD244" s="47"/>
+      <c r="AD244" s="43"/>
     </row>
     <row r="245" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD245" s="47"/>
+      <c r="AD245" s="43"/>
     </row>
     <row r="246" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD246" s="47"/>
+      <c r="AD246" s="43"/>
     </row>
     <row r="247" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD247" s="47"/>
+      <c r="AD247" s="43"/>
     </row>
     <row r="248" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD248" s="47"/>
+      <c r="AD248" s="43"/>
     </row>
     <row r="249" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD249" s="47"/>
+      <c r="AD249" s="43"/>
     </row>
     <row r="250" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD250" s="47"/>
+      <c r="AD250" s="43"/>
     </row>
     <row r="251" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD251" s="47"/>
+      <c r="AD251" s="43"/>
     </row>
     <row r="252" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD252" s="47"/>
+      <c r="AD252" s="43"/>
     </row>
     <row r="253" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD253" s="47"/>
+      <c r="AD253" s="43"/>
     </row>
     <row r="254" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD254" s="47"/>
+      <c r="AD254" s="43"/>
     </row>
     <row r="255" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD255" s="47"/>
+      <c r="AD255" s="43"/>
     </row>
     <row r="256" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD256" s="47"/>
+      <c r="AD256" s="43"/>
     </row>
     <row r="257" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD257" s="47"/>
+      <c r="AD257" s="43"/>
     </row>
     <row r="258" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD258" s="47"/>
+      <c r="AD258" s="43"/>
     </row>
     <row r="259" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD259" s="47"/>
+      <c r="AD259" s="43"/>
     </row>
     <row r="260" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD260" s="47"/>
+      <c r="AD260" s="43"/>
     </row>
     <row r="261" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD261" s="47"/>
+      <c r="AD261" s="43"/>
     </row>
     <row r="262" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD262" s="47"/>
+      <c r="AD262" s="43"/>
     </row>
     <row r="263" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD263" s="47"/>
+      <c r="AD263" s="43"/>
     </row>
     <row r="264" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD264" s="47"/>
+      <c r="AD264" s="43"/>
     </row>
     <row r="265" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD265" s="47"/>
+      <c r="AD265" s="43"/>
     </row>
     <row r="266" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD266" s="47"/>
+      <c r="AD266" s="43"/>
     </row>
     <row r="267" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD267" s="47"/>
+      <c r="AD267" s="43"/>
     </row>
     <row r="268" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD268" s="47"/>
+      <c r="AD268" s="43"/>
     </row>
     <row r="269" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD269" s="47"/>
+      <c r="AD269" s="43"/>
     </row>
     <row r="270" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD270" s="47"/>
+      <c r="AD270" s="43"/>
     </row>
     <row r="271" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD271" s="47"/>
+      <c r="AD271" s="43"/>
     </row>
     <row r="272" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD272" s="47"/>
+      <c r="AD272" s="43"/>
     </row>
     <row r="273" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD273" s="47"/>
+      <c r="AD273" s="43"/>
     </row>
     <row r="274" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD274" s="47"/>
+      <c r="AD274" s="43"/>
     </row>
     <row r="275" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD275" s="47"/>
+      <c r="AD275" s="43"/>
     </row>
     <row r="276" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD276" s="47"/>
+      <c r="AD276" s="43"/>
     </row>
     <row r="277" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD277" s="47"/>
+      <c r="AD277" s="43"/>
     </row>
     <row r="278" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD278" s="47"/>
+      <c r="AD278" s="43"/>
     </row>
     <row r="279" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD279" s="47"/>
+      <c r="AD279" s="43"/>
     </row>
     <row r="280" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD280" s="47"/>
+      <c r="AD280" s="43"/>
     </row>
     <row r="281" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD281" s="47"/>
+      <c r="AD281" s="43"/>
     </row>
     <row r="282" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD282" s="47"/>
+      <c r="AD282" s="43"/>
     </row>
     <row r="283" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD283" s="47"/>
+      <c r="AD283" s="43"/>
     </row>
     <row r="284" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD284" s="47"/>
+      <c r="AD284" s="43"/>
     </row>
     <row r="285" spans="30:30" ht="15.75" customHeight="1">
-      <c r="AD285" s="47"/>
+      <c r="AD285" s="43"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -13005,12 +13026,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'pick lists'!$D$2:$D$60</xm:f>
-          </x14:formula1>
-          <xm:sqref>J10:J100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
             <xm:f>'pick lists'!$E$2:$E$12</xm:f>
           </x14:formula1>
           <xm:sqref>N10:N100</xm:sqref>
@@ -13045,6 +13060,12 @@
           </x14:formula1>
           <xm:sqref>I10:I100</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>'pick lists'!$D$2:$D$59</xm:f>
+          </x14:formula1>
+          <xm:sqref>J10:J100</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -13053,903 +13074,1555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.3515625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="10.76171875" customWidth="1"/>
-    <col min="4" max="4" width="24.9375" customWidth="1"/>
-    <col min="5" max="5" width="19.5859375" customWidth="1"/>
-    <col min="6" max="6" width="20.87890625" customWidth="1"/>
-    <col min="7" max="7" width="15.05859375" customWidth="1"/>
-    <col min="8" max="8" width="42.87890625" customWidth="1"/>
-    <col min="9" max="9" width="17.703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="15">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+    </row>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" s="56"/>
+      <c r="B7" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+    </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+    </row>
+    <row r="9" spans="1:14" ht="15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+    </row>
+    <row r="10" spans="1:14" ht="15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+    </row>
+    <row r="11" spans="1:14" ht="15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+    </row>
+    <row r="12" spans="1:14" ht="15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+    </row>
+    <row r="13" spans="1:14" ht="15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+    </row>
+    <row r="14" spans="1:14" ht="15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="1:14" ht="15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="56"/>
+      <c r="J15" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+    </row>
+    <row r="16" spans="1:14" ht="15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="56"/>
+      <c r="J16" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+    </row>
+    <row r="17" spans="1:14" ht="15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+    </row>
+    <row r="18" spans="1:14" ht="15">
+      <c r="A18" s="56"/>
+      <c r="B18" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="56"/>
+      <c r="J18" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+    </row>
+    <row r="19" spans="1:14" ht="15">
+      <c r="A19" s="56"/>
+      <c r="B19" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+    </row>
+    <row r="20" spans="1:14" ht="15">
+      <c r="A20" s="56"/>
+      <c r="B20" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="56"/>
+      <c r="J20" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+    </row>
+    <row r="21" spans="1:14" ht="15">
+      <c r="A21" s="56"/>
+      <c r="B21" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+    </row>
+    <row r="22" spans="1:14" ht="15">
+      <c r="A22" s="56"/>
+      <c r="B22" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="56"/>
+      <c r="J22" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+    </row>
+    <row r="23" spans="1:14" ht="15">
+      <c r="A23" s="56"/>
+      <c r="B23" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+    </row>
+    <row r="24" spans="1:14" ht="15">
+      <c r="A24" s="56"/>
+      <c r="B24" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+    </row>
+    <row r="25" spans="1:14" ht="15">
+      <c r="A25" s="56"/>
+      <c r="B25" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="56"/>
+      <c r="J25" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+    </row>
+    <row r="26" spans="1:14" ht="15">
+      <c r="A26" s="56"/>
+      <c r="B26" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+    </row>
+    <row r="27" spans="1:14" ht="15">
+      <c r="A27" s="56"/>
+      <c r="B27" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+    </row>
+    <row r="28" spans="1:14" ht="15">
+      <c r="A28" s="56"/>
+      <c r="B28" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.35">
-      <c r="A3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.35">
-      <c r="A4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.35">
-      <c r="A5" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="1:14" ht="15">
+      <c r="A29" s="56"/>
+      <c r="B29" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+    </row>
+    <row r="30" spans="1:14" ht="15">
+      <c r="A30" s="56"/>
+      <c r="B30" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="56"/>
+      <c r="J30" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+    </row>
+    <row r="31" spans="1:14" ht="15">
+      <c r="A31" s="56"/>
+      <c r="B31" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:14" ht="15">
+      <c r="A32" s="56"/>
+      <c r="B32" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+    </row>
+    <row r="33" spans="1:14" ht="15">
+      <c r="A33" s="56"/>
+      <c r="B33" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="56"/>
+      <c r="J33" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+    </row>
+    <row r="34" spans="1:14" ht="15">
+      <c r="A34" s="56"/>
+      <c r="B34" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+    </row>
+    <row r="35" spans="1:14" ht="15">
+      <c r="A35" s="56"/>
+      <c r="B35" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+    </row>
+    <row r="36" spans="1:14" ht="15">
+      <c r="A36" s="56"/>
+      <c r="B36" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.35">
-      <c r="B6" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.35">
-      <c r="B7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="1:14" ht="15">
+      <c r="A37" s="56"/>
+      <c r="B37" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="1:14" ht="15">
+      <c r="A38" s="56"/>
+      <c r="B38" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+    </row>
+    <row r="39" spans="1:14" ht="15">
+      <c r="A39" s="56"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="1:14" ht="15">
+      <c r="A40" s="56"/>
+      <c r="B40" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" s="56"/>
+      <c r="J40" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+    </row>
+    <row r="41" spans="1:14" ht="15">
+      <c r="A41" s="56"/>
+      <c r="B41" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+    </row>
+    <row r="42" spans="1:14" ht="15">
+      <c r="A42" s="56"/>
+      <c r="B42" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" s="56"/>
+      <c r="J42" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.35">
-      <c r="B8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="1:14" ht="15">
+      <c r="A43" s="56"/>
+      <c r="B43" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43" s="56"/>
+      <c r="J43" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.35">
-      <c r="B9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+    </row>
+    <row r="44" spans="1:14" ht="15">
+      <c r="A44" s="56"/>
+      <c r="B44" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" s="56"/>
+      <c r="J44" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.35">
-      <c r="B10" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+    </row>
+    <row r="45" spans="1:14" ht="15">
+      <c r="A45" s="56"/>
+      <c r="B45" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="56"/>
+      <c r="J45" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+    </row>
+    <row r="46" spans="1:14" ht="15">
+      <c r="A46" s="56"/>
+      <c r="B46" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+    </row>
+    <row r="47" spans="1:14" ht="15">
+      <c r="A47" s="56"/>
+      <c r="B47" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="I47" s="56"/>
+      <c r="J47" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.35">
-      <c r="B11" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.35">
-      <c r="B12" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.35">
-      <c r="B13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.35">
-      <c r="B14" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.35">
-      <c r="B15" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.35">
-      <c r="B16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.35">
-      <c r="B17" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.35">
-      <c r="B18" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.35">
-      <c r="B19" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.35">
-      <c r="B20" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="14.35">
-      <c r="B21" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="14.35">
-      <c r="B22" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="14.35">
-      <c r="B23" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="14.35">
-      <c r="B24" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="14.35">
-      <c r="B25" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="14.35">
-      <c r="B26" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="14.35">
-      <c r="B27" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="14.35">
-      <c r="B28" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="14.35">
-      <c r="B29" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="14.35">
-      <c r="B30" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="J30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="14.35">
-      <c r="B31" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="14.35">
-      <c r="B32" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="J32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="14.35">
-      <c r="B33" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="14.35">
-      <c r="B34" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="J34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="14.35">
-      <c r="B35" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="14.35">
-      <c r="B36" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="14.35">
-      <c r="B37" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="J37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="14.35">
-      <c r="B38" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="14.35">
-      <c r="B39" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="14.35">
-      <c r="B40" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="14.35">
-      <c r="B41" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="J41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="14.35">
-      <c r="B42" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="J42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="14.35">
-      <c r="B43" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="J43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="14.35">
-      <c r="B44" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="J44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="14.35">
-      <c r="B45" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="14.35">
-      <c r="B46" s="13" t="s">
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+    </row>
+    <row r="48" spans="1:14" ht="15">
+      <c r="A48" s="56"/>
+      <c r="B48" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="14.35">
-      <c r="B47" s="13" t="s">
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+    </row>
+    <row r="49" spans="1:14" ht="15">
+      <c r="A49" s="56"/>
+      <c r="B49" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="14.35">
-      <c r="B48" s="13" t="s">
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+    </row>
+    <row r="50" spans="1:14" ht="15">
+      <c r="A50" s="56"/>
+      <c r="B50" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="14.35">
-      <c r="B49" s="13" t="s">
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+    </row>
+    <row r="51" spans="1:14" ht="15">
+      <c r="A51" s="56"/>
+      <c r="B51" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="C51" s="56"/>
+      <c r="D51" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="14.35">
-      <c r="B50" s="13" t="s">
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+    </row>
+    <row r="52" spans="1:14" ht="15">
+      <c r="A52" s="56"/>
+      <c r="B52" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+    </row>
+    <row r="53" spans="1:14" ht="15">
+      <c r="A53" s="56"/>
+      <c r="B53" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="14.35">
-      <c r="B51" s="13" t="s">
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+    </row>
+    <row r="54" spans="1:14" ht="15">
+      <c r="A54" s="56"/>
+      <c r="B54" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="14.35">
-      <c r="B52" s="13" t="s">
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+    </row>
+    <row r="55" spans="1:14" ht="15">
+      <c r="A55" s="56"/>
+      <c r="B55" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="14.35">
-      <c r="B53" s="13" t="s">
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+    </row>
+    <row r="56" spans="1:14" ht="15">
+      <c r="A56" s="56"/>
+      <c r="B56" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="56"/>
+      <c r="D56" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="14.35">
-      <c r="B54" s="13" t="s">
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+    </row>
+    <row r="57" spans="1:14" ht="15">
+      <c r="A57" s="56"/>
+      <c r="B57" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="14.35">
-      <c r="B55" s="13" t="s">
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+    </row>
+    <row r="58" spans="1:14" ht="15">
+      <c r="A58" s="56"/>
+      <c r="B58" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="56"/>
+      <c r="D58" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="14.35">
-      <c r="B56" s="13" t="s">
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+    </row>
+    <row r="59" spans="1:14" ht="15">
+      <c r="A59" s="56"/>
+      <c r="B59" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="56"/>
+      <c r="D59" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="14.35">
-      <c r="B57" s="13" t="s">
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="15">
+      <c r="A60" s="56"/>
+      <c r="B60" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="56"/>
+      <c r="D60" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="14.35">
-      <c r="B58" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="14.35">
-      <c r="B59" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="14.35">
-      <c r="B60" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>310</v>
-      </c>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+    </row>
+    <row r="61" spans="1:14" ht="15">
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+    </row>
+    <row r="62" spans="1:14" ht="15">
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+    </row>
+    <row r="63" spans="1:14" ht="15">
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+    </row>
+    <row r="64" spans="1:14" ht="15">
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/vaccination_signature_curation_template.xlsx
+++ b/docs/vaccination_signature_curation_template.xlsx
@@ -182,9 +182,6 @@
     <t>curation date YYYY-MM-DD </t>
   </si>
   <si>
-    <t>Cohort - any characteristics of the population(s) studied, plus whether the result was taken from a subgroup of the broader cohort tested.</t>
-  </si>
-  <si>
     <t>age_min - age of youngest subject including both cases and controls</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
   </si>
   <si>
     <t>response behavior (direction, correlation type etc.)</t>
-  </si>
-  <si>
-    <t>comparison (affected vs control, correlated variable, time vs baseline event etc.)</t>
   </si>
   <si>
     <t>baseline time event</t>
@@ -1101,14 +1095,6 @@
     <t>Date curation completed</t>
   </si>
   <si>
-    <t>Any characteristics of the population(s) studied, besides age. Example: 
-Hong Kong, Atlanta
-Also report if the result was limited to a subgroup of the tested cohort, e.g. 
-- subjects suffering adverse events 
-- particular threshold levels of antibody titer level
-- based on a receiving a particular treatment</t>
-  </si>
-  <si>
     <t>Include both case/affected and control subjects</t>
   </si>
   <si>
@@ -1194,12 +1180,113 @@
 - positively predictive, negatively predictive, predictive</t>
   </si>
   <si>
+    <t>The reference event from which the time of the experimental response  is measured, e.g. hospital admission, onset of symptoms</t>
+  </si>
+  <si>
+    <t>Time point when response was measured, e.g. “7”, “various”, “0 to 8”</t>
+  </si>
+  <si>
+    <t>days, months etc.</t>
+  </si>
+  <si>
+    <t>URL of the article curated. Please use PubMed if available</t>
+  </si>
+  <si>
+    <t>Details clarifying any aspect of the signature not captured in other fields.  Will appear in Dashboard</t>
+  </si>
+  <si>
+    <t>Questions or notes for further examination from curator. Will not appear in Dashboard</t>
+  </si>
+  <si>
+    <t>If an appropriate exposure_material_id is found, enter here the corresponding vaccine name (e.g., “Fluarix”) from the Vaccine Ontology. Otherwise record the exposure material as reported in the publication.</t>
+  </si>
+  <si>
+    <t>Additional exposure material administered in combination with the main vaccine.</t>
+  </si>
+  <si>
+    <t>Choose from list or use format VO:0000045</t>
+  </si>
+  <si>
+    <t>Either search the Vaccine Ontology or use the pick list ie, which lists commonly encountered exposure materials. Enter ids using format VO:0000045. If no appropriate id can be identified, leave empty.</t>
+  </si>
+  <si>
+    <t>additional exposure material administered in combination with the main vaccine.</t>
+  </si>
+  <si>
+    <t>name of the pathogen(s) targeted by the vaccine.</t>
+  </si>
+  <si>
+    <t>NCBI Taxonomy names for the pathogen(s) coded in target_pathogen_taxonid. If “influ:xxxx” was used for the pathogen id, you do not have to enter a value here - values will be filled in by script based on the vaccine code, during post-curation processing.</t>
+  </si>
+  <si>
+    <t>NCBI Taxonomy identifier(s) for the pathogen(s) targeted by the vaccine. For influenza vaccines, as a matter of convenience, dedicated codes can be used to simplify the assignment process.</t>
+  </si>
+  <si>
+    <t>Choose from list or use format ncbi_taxid:10335</t>
+  </si>
+  <si>
+    <t>For influenza, enter the tag “influ:xxxx” for the vaccine year/type from the list, e.g. “influ:2008”, “influ:2009mv”. For all other pathogens, search for the pathogen in the NCBI Taxonomy and enter the relevant code using the format ncbi_taxid:10335. You can also lookup the pathogen in file “ncbi_txids.tsv”, a file we curate which lists NCBI Taxonomy codes for common vaccine pathogens. For multivalent vaccines, separate multiple pathogen entries with a semicolon.</t>
+  </si>
+  <si>
+    <t>For influenza vaccines only, enter the official year of the vaccine, e.g. 2008, or the tag from the vaccine_years.xlsx spreadsheet, e.g. “2009mv”. Multiple years are allowed separated by commas, e.g. “2008, 2009, 2010”</t>
+  </si>
+  <si>
+    <t>adjuvant, if any was co-administered with the vaccine.</t>
+  </si>
+  <si>
+    <t>Name of adjuvant, and vaccine ontology ID if available, e.g. “AS03 (VO:0001320)”</t>
+  </si>
+  <si>
+    <t>route used for vaccine delivery.</t>
+  </si>
+  <si>
+    <t>Choose from list</t>
+  </si>
+  <si>
+    <t>Description of vaccination schedule, if more than one dose was administered.</t>
+  </si>
+  <si>
+    <t>Can be used to record the number of doses (e.g. “2 doses”).</t>
+  </si>
+  <si>
+    <t>differentially expressed</t>
+  </si>
+  <si>
+    <t>CL:0000784 (plasmacytoid dendritic cell)</t>
+  </si>
+  <si>
+    <t>CL:0000897 (CD4-positive, alpha-beta memory T cell)</t>
+  </si>
+  <si>
+    <t>CL:0000898 (naive T cell)</t>
+  </si>
+  <si>
+    <t>CL:0000946 (antibody secreting cell)</t>
+  </si>
+  <si>
+    <t>CL:2000000 (epidermal melanocyte)</t>
+  </si>
+  <si>
+    <t>CL_0000981 (double negative memory b cell)</t>
+  </si>
+  <si>
+    <t>UBERON:0002097 (skin of body)</t>
+  </si>
+  <si>
+    <t>clinical laboratory test</t>
+  </si>
+  <si>
+    <t>Construct using relevant characteristics of the studied population(s), as reported in the publication. Indicate if the result is relevant to a subgroup of the overall cohort, e.g.
+• subjects suffering adverse events
+• particular threshold levels of antibody titer
+• based on a receiving a particular treatment
+Example: “COVID-19 patients and healthy controls (Hong Kong, China)”, “Vaccine non-responders with mild/moderate disease (Atlanta, Georgia)”.</t>
+  </si>
+  <si>
+    <t>A short description of the population where the immune signature is measured.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
-      </rPr>
       <t xml:space="preserve">Comparisons are typically between two groups, or may reflect a correlation of the response component with some other measured variable. </t>
     </r>
     <r>
@@ -1207,7 +1294,9 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Only report significant results. E</t>
     </r>
@@ -1215,123 +1304,39 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>xamples:
-- severe COVID-19 cases vs healthy
+- severe COVID-19 cases (N=24) vs healthy (N=28)
 - moderate COVID-19 cases vs healthy; severe COVID-19 cases vs healthy
 - interferon-stimulated genes in COVID-19 vs healthy
 - bacterial DNA levels across COVID-19 and healthy subjects
-Include time comparison if relevant, e.g. 7d vs 0d, where the times are relative to the baseline reference event time (0d). Times before baseline event can be entered as negative numbers, e.g. days before vaccination (7d vs -1d).
+If known, include the number of subjects in each comparison group using (N=&lt;num&gt;) notation. Include time comparison if relevant, e.g. 7d vs 0d, where the times are relative to the baseline reference event time (0d). Times before baseline event can be entered as negative numbers, e.g. days before vaccination (7d vs -1d).
 **Please be concise.**</t>
     </r>
   </si>
   <si>
-    <t>The reference event from which the time of the experimental response  is measured, e.g. hospital admission, onset of symptoms</t>
-  </si>
-  <si>
-    <t>Time point when response was measured, e.g. “7”, “various”, “0 to 8”</t>
-  </si>
-  <si>
-    <t>days, months etc.</t>
-  </si>
-  <si>
-    <t>URL of the article curated. Please use PubMed if available</t>
-  </si>
-  <si>
-    <t>Details clarifying any aspect of the signature not captured in other fields.  Will appear in Dashboard</t>
-  </si>
-  <si>
-    <t>Questions or notes for further examination from curator. Will not appear in Dashboard</t>
-  </si>
-  <si>
-    <t>If an appropriate exposure_material_id is found, enter here the corresponding vaccine name (e.g., “Fluarix”) from the Vaccine Ontology. Otherwise record the exposure material as reported in the publication.</t>
-  </si>
-  <si>
-    <t>Additional exposure material administered in combination with the main vaccine.</t>
-  </si>
-  <si>
-    <t>Choose from list or use format VO:0000045</t>
-  </si>
-  <si>
-    <t>Either search the Vaccine Ontology or use the pick list ie, which lists commonly encountered exposure materials. Enter ids using format VO:0000045. If no appropriate id can be identified, leave empty.</t>
-  </si>
-  <si>
-    <t>additional exposure material administered in combination with the main vaccine.</t>
-  </si>
-  <si>
-    <t>name of the pathogen(s) targeted by the vaccine.</t>
-  </si>
-  <si>
-    <t>NCBI Taxonomy names for the pathogen(s) coded in target_pathogen_taxonid. If “influ:xxxx” was used for the pathogen id, you do not have to enter a value here - values will be filled in by script based on the vaccine code, during post-curation processing.</t>
-  </si>
-  <si>
-    <t>NCBI Taxonomy identifier(s) for the pathogen(s) targeted by the vaccine. For influenza vaccines, as a matter of convenience, dedicated codes can be used to simplify the assignment process.</t>
-  </si>
-  <si>
-    <t>Choose from list or use format ncbi_taxid:10335</t>
-  </si>
-  <si>
-    <t>For influenza, enter the tag “influ:xxxx” for the vaccine year/type from the list, e.g. “influ:2008”, “influ:2009mv”. For all other pathogens, search for the pathogen in the NCBI Taxonomy and enter the relevant code using the format ncbi_taxid:10335. You can also lookup the pathogen in file “ncbi_txids.tsv”, a file we curate which lists NCBI Taxonomy codes for common vaccine pathogens. For multivalent vaccines, separate multiple pathogen entries with a semicolon.</t>
-  </si>
-  <si>
-    <t>For influenza vaccines only, enter the official year of the vaccine, e.g. 2008, or the tag from the vaccine_years.xlsx spreadsheet, e.g. “2009mv”. Multiple years are allowed separated by commas, e.g. “2008, 2009, 2010”</t>
-  </si>
-  <si>
-    <t>adjuvant, if any was co-administered with the vaccine.</t>
-  </si>
-  <si>
-    <t>Name of adjuvant, and vaccine ontology ID if available, e.g. “AS03 (VO:0001320)”</t>
-  </si>
-  <si>
-    <t>route used for vaccine delivery.</t>
-  </si>
-  <si>
-    <t>Choose from list</t>
-  </si>
-  <si>
-    <t>Description of vaccination schedule, if more than one dose was administered.</t>
-  </si>
-  <si>
-    <t>Can be used to record the number of doses (e.g. “2 doses”).</t>
-  </si>
-  <si>
-    <t>differentially expressed</t>
-  </si>
-  <si>
-    <t>CL:0000784 (plasmacytoid dendritic cell)</t>
-  </si>
-  <si>
-    <t>CL:0000897 (CD4-positive, alpha-beta memory T cell)</t>
-  </si>
-  <si>
-    <t>CL:0000898 (naive T cell)</t>
-  </si>
-  <si>
-    <t>CL:0000946 (antibody secreting cell)</t>
-  </si>
-  <si>
-    <t>CL:2000000 (epidermal melanocyte)</t>
-  </si>
-  <si>
-    <t>CL_0000981 (double negative memory b cell)</t>
-  </si>
-  <si>
-    <t>UBERON:0002097 (skin of body)</t>
-  </si>
-  <si>
-    <t>clinical laboratory test</t>
+    <t>Description of the comparison which gives rise to the response behavior reported in the immune signature.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1464,6 +1469,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1565,154 +1578,157 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1999,9 +2015,9 @@
   </sheetPr>
   <dimension ref="A1:AP285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2016,7 +2032,7 @@
     <col min="10" max="10" width="29.140625" customWidth="1"/>
     <col min="11" max="11" width="46.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
     <col min="14" max="14" width="42.140625" customWidth="1"/>
     <col min="15" max="15" width="76" customWidth="1"/>
     <col min="16" max="16" width="41.7109375" customWidth="1"/>
@@ -2509,103 +2525,103 @@
     </row>
     <row r="7" spans="1:42" s="16" customFormat="1" ht="80.45" customHeight="1" thickBot="1">
       <c r="A7" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="F7" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="G7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="H7" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="I7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="J7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="K7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="L7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="N7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="O7" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="P7" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="Q7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="R7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="S7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="T7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="U7" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="V7" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="W7" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="X7" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="Y7" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z7" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA7" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB7" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="V7" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="W7" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="X7" s="44" t="s">
+      <c r="AC7" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z7" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA7" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB7" s="44" t="s">
+      <c r="AD7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AC7" s="49" t="s">
+      <c r="AE7" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" s="44" t="s">
+      <c r="AF7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" s="44" t="s">
+      <c r="AG7" s="44" t="s">
         <v>73</v>
-      </c>
-      <c r="AF7" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="44" t="s">
-        <v>75</v>
       </c>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -2619,91 +2635,91 @@
     </row>
     <row r="8" spans="1:42" s="16" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
       <c r="A8" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="D8" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="E8" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="G8" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="46" t="s">
+      <c r="I8" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="J8" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="K8" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="L8" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="M8" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="N8" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="O8" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="P8" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="Q8" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="R8" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="S8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="V8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="X8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y8" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z8" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA8" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="AB8" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="S8" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="U8" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="V8" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="W8" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="X8" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y8" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z8" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA8" s="45" t="s">
+      <c r="AC8" s="50" t="s">
         <v>324</v>
-      </c>
-      <c r="AB8" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC8" s="50" t="s">
-        <v>326</v>
       </c>
       <c r="AD8" s="52"/>
       <c r="AE8" s="52"/>
@@ -2715,93 +2731,93 @@
       <c r="AK8" s="48"/>
       <c r="AL8" s="48"/>
     </row>
-    <row r="9" spans="1:42" s="16" customFormat="1" ht="134.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:42" s="16" customFormat="1" ht="201.75" customHeight="1" thickBot="1">
       <c r="A9" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="E9" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="G9" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="H9" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="46" t="s">
+      <c r="I9" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="J9" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="K9" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="L9" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="M9" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="N9" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="O9" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="P9" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="Q9" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="N9" s="45" t="s">
+      <c r="R9" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="S9" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="X9" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y9" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z9" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="AA9" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB9" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="AC9" s="51" t="s">
         <v>342</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="S9" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="T9" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="U9" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="V9" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="W9" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="X9" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y9" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z9" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA9" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB9" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC9" s="51" t="s">
-        <v>346</v>
       </c>
       <c r="AD9" s="52"/>
       <c r="AE9" s="52"/>
@@ -13002,7 +13018,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
@@ -13127,34 +13143,34 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="H2" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>82</v>
-      </c>
       <c r="J2" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="56"/>
@@ -13163,34 +13179,34 @@
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="H3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>90</v>
-      </c>
       <c r="J3" s="53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
@@ -13199,32 +13215,32 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56"/>
@@ -13233,32 +13249,32 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
@@ -13268,25 +13284,25 @@
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="56"/>
       <c r="B6" s="55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
@@ -13296,25 +13312,25 @@
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="56"/>
       <c r="B7" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I7" s="56"/>
       <c r="J7" s="53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
@@ -13324,23 +13340,23 @@
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="56"/>
       <c r="B8" s="55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I8" s="56"/>
       <c r="J8" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
@@ -13350,23 +13366,23 @@
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="56"/>
       <c r="B9" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I9" s="56"/>
       <c r="J9" s="53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
@@ -13376,23 +13392,23 @@
     <row r="10" spans="1:14" ht="15">
       <c r="A10" s="56"/>
       <c r="B10" s="55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -13402,23 +13418,23 @@
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="56"/>
       <c r="B11" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
@@ -13428,23 +13444,23 @@
     <row r="12" spans="1:14" ht="15">
       <c r="A12" s="56"/>
       <c r="B12" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
       <c r="H12" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
@@ -13454,23 +13470,23 @@
     <row r="13" spans="1:14" ht="15">
       <c r="A13" s="56"/>
       <c r="B13" s="55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I13" s="56"/>
       <c r="J13" s="53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
@@ -13480,21 +13496,21 @@
     <row r="14" spans="1:14" ht="15">
       <c r="A14" s="56"/>
       <c r="B14" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
@@ -13504,21 +13520,21 @@
     <row r="15" spans="1:14" ht="15">
       <c r="A15" s="56"/>
       <c r="B15" s="55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
@@ -13528,21 +13544,21 @@
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="56"/>
       <c r="B16" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
@@ -13552,21 +13568,21 @@
     <row r="17" spans="1:14" ht="15">
       <c r="A17" s="56"/>
       <c r="B17" s="55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="56"/>
@@ -13576,21 +13592,21 @@
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="56"/>
       <c r="B18" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I18" s="56"/>
       <c r="J18" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
@@ -13600,21 +13616,21 @@
     <row r="19" spans="1:14" ht="15">
       <c r="A19" s="56"/>
       <c r="B19" s="55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
@@ -13624,21 +13640,21 @@
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="56"/>
       <c r="B20" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I20" s="56"/>
       <c r="J20" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K20" s="56"/>
       <c r="L20" s="56"/>
@@ -13648,21 +13664,21 @@
     <row r="21" spans="1:14" ht="15">
       <c r="A21" s="56"/>
       <c r="B21" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I21" s="56"/>
       <c r="J21" s="53" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
@@ -13672,21 +13688,21 @@
     <row r="22" spans="1:14" ht="15">
       <c r="A22" s="56"/>
       <c r="B22" s="55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I22" s="56"/>
       <c r="J22" s="53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K22" s="56"/>
       <c r="L22" s="56"/>
@@ -13696,21 +13712,21 @@
     <row r="23" spans="1:14" ht="15">
       <c r="A23" s="56"/>
       <c r="B23" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I23" s="56"/>
       <c r="J23" s="53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K23" s="56"/>
       <c r="L23" s="56"/>
@@ -13720,21 +13736,21 @@
     <row r="24" spans="1:14" ht="15">
       <c r="A24" s="56"/>
       <c r="B24" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
       <c r="H24" s="55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I24" s="56"/>
       <c r="J24" s="53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K24" s="56"/>
       <c r="L24" s="56"/>
@@ -13744,21 +13760,21 @@
     <row r="25" spans="1:14" ht="15">
       <c r="A25" s="56"/>
       <c r="B25" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
       <c r="G25" s="56"/>
       <c r="H25" s="55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I25" s="56"/>
       <c r="J25" s="53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K25" s="56"/>
       <c r="L25" s="56"/>
@@ -13768,21 +13784,21 @@
     <row r="26" spans="1:14" ht="15">
       <c r="A26" s="56"/>
       <c r="B26" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
       <c r="H26" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I26" s="56"/>
       <c r="J26" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K26" s="56"/>
       <c r="L26" s="56"/>
@@ -13792,11 +13808,11 @@
     <row r="27" spans="1:14" ht="15">
       <c r="A27" s="56"/>
       <c r="B27" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
@@ -13804,7 +13820,7 @@
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="56"/>
@@ -13814,21 +13830,21 @@
     <row r="28" spans="1:14" ht="15">
       <c r="A28" s="56"/>
       <c r="B28" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="56"/>
       <c r="H28" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I28" s="56"/>
       <c r="J28" s="53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="56"/>
@@ -13838,21 +13854,21 @@
     <row r="29" spans="1:14" ht="15">
       <c r="A29" s="56"/>
       <c r="B29" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
       <c r="H29" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I29" s="56"/>
       <c r="J29" s="53" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56"/>
@@ -13862,21 +13878,21 @@
     <row r="30" spans="1:14" ht="15">
       <c r="A30" s="56"/>
       <c r="B30" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
       <c r="H30" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="53" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56"/>
@@ -13886,21 +13902,21 @@
     <row r="31" spans="1:14" ht="15">
       <c r="A31" s="56"/>
       <c r="B31" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
       <c r="H31" s="55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
@@ -13910,21 +13926,21 @@
     <row r="32" spans="1:14" ht="15">
       <c r="A32" s="56"/>
       <c r="B32" s="55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I32" s="56"/>
       <c r="J32" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K32" s="56"/>
       <c r="L32" s="56"/>
@@ -13934,21 +13950,21 @@
     <row r="33" spans="1:14" ht="15">
       <c r="A33" s="56"/>
       <c r="B33" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
@@ -13958,21 +13974,21 @@
     <row r="34" spans="1:14" ht="15">
       <c r="A34" s="56"/>
       <c r="B34" s="55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
       <c r="G34" s="56"/>
       <c r="H34" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56"/>
@@ -13982,21 +13998,21 @@
     <row r="35" spans="1:14" ht="15">
       <c r="A35" s="56"/>
       <c r="B35" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C35" s="56"/>
       <c r="D35" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
       <c r="G35" s="56"/>
       <c r="H35" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
@@ -14006,21 +14022,21 @@
     <row r="36" spans="1:14" ht="15">
       <c r="A36" s="56"/>
       <c r="B36" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
       <c r="G36" s="56"/>
       <c r="H36" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
@@ -14030,21 +14046,21 @@
     <row r="37" spans="1:14" ht="15">
       <c r="A37" s="56"/>
       <c r="B37" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C37" s="56"/>
       <c r="D37" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
       <c r="G37" s="56"/>
       <c r="H37" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K37" s="56"/>
       <c r="L37" s="56"/>
@@ -14054,21 +14070,21 @@
     <row r="38" spans="1:14" ht="15">
       <c r="A38" s="56"/>
       <c r="B38" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C38" s="56"/>
       <c r="D38" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
       <c r="H38" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I38" s="56"/>
       <c r="J38" s="53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
@@ -14078,21 +14094,21 @@
     <row r="39" spans="1:14" ht="15">
       <c r="A39" s="56"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
       <c r="H39" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I39" s="56"/>
       <c r="J39" s="53" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K39" s="56"/>
       <c r="L39" s="56"/>
@@ -14102,21 +14118,21 @@
     <row r="40" spans="1:14" ht="15">
       <c r="A40" s="56"/>
       <c r="B40" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56"/>
       <c r="H40" s="55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I40" s="56"/>
       <c r="J40" s="53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K40" s="56"/>
       <c r="L40" s="56"/>
@@ -14126,21 +14142,21 @@
     <row r="41" spans="1:14" ht="15">
       <c r="A41" s="56"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
       <c r="G41" s="56"/>
       <c r="H41" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I41" s="56"/>
       <c r="J41" s="53" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K41" s="56"/>
       <c r="L41" s="56"/>
@@ -14150,21 +14166,21 @@
     <row r="42" spans="1:14" ht="15">
       <c r="A42" s="56"/>
       <c r="B42" s="55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C42" s="56"/>
       <c r="D42" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
       <c r="G42" s="56"/>
       <c r="H42" s="55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I42" s="56"/>
       <c r="J42" s="53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
@@ -14174,21 +14190,21 @@
     <row r="43" spans="1:14" ht="15">
       <c r="A43" s="56"/>
       <c r="B43" s="55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
       <c r="G43" s="56"/>
       <c r="H43" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
@@ -14198,21 +14214,21 @@
     <row r="44" spans="1:14" ht="15">
       <c r="A44" s="56"/>
       <c r="B44" s="55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C44" s="56"/>
       <c r="D44" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
       <c r="G44" s="56"/>
       <c r="H44" s="55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
@@ -14222,21 +14238,21 @@
     <row r="45" spans="1:14" ht="15">
       <c r="A45" s="56"/>
       <c r="B45" s="55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C45" s="56"/>
       <c r="D45" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E45" s="56"/>
       <c r="F45" s="56"/>
       <c r="G45" s="56"/>
       <c r="H45" s="55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I45" s="56"/>
       <c r="J45" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
@@ -14246,21 +14262,21 @@
     <row r="46" spans="1:14" ht="15">
       <c r="A46" s="56"/>
       <c r="B46" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C46" s="56"/>
       <c r="D46" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E46" s="56"/>
       <c r="F46" s="56"/>
       <c r="G46" s="56"/>
       <c r="H46" s="55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="53" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
@@ -14270,21 +14286,21 @@
     <row r="47" spans="1:14" ht="15">
       <c r="A47" s="56"/>
       <c r="B47" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E47" s="56"/>
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
       <c r="H47" s="55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
@@ -14294,17 +14310,17 @@
     <row r="48" spans="1:14" ht="15">
       <c r="A48" s="56"/>
       <c r="B48" s="55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C48" s="56"/>
       <c r="D48" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E48" s="56"/>
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
       <c r="H48" s="55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I48" s="56"/>
       <c r="J48" s="56"/>
@@ -14316,17 +14332,17 @@
     <row r="49" spans="1:14" ht="15">
       <c r="A49" s="56"/>
       <c r="B49" s="55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E49" s="56"/>
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
       <c r="H49" s="55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I49" s="56"/>
       <c r="J49" s="56"/>
@@ -14338,17 +14354,17 @@
     <row r="50" spans="1:14" ht="15">
       <c r="A50" s="56"/>
       <c r="B50" s="55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E50" s="56"/>
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
       <c r="H50" s="55" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I50" s="56"/>
       <c r="J50" s="56"/>
@@ -14360,11 +14376,11 @@
     <row r="51" spans="1:14" ht="15">
       <c r="A51" s="56"/>
       <c r="B51" s="55" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C51" s="56"/>
       <c r="D51" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E51" s="56"/>
       <c r="F51" s="56"/>
@@ -14380,11 +14396,11 @@
     <row r="52" spans="1:14" ht="15">
       <c r="A52" s="56"/>
       <c r="B52" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E52" s="56"/>
       <c r="F52" s="56"/>
@@ -14400,11 +14416,11 @@
     <row r="53" spans="1:14" ht="15">
       <c r="A53" s="56"/>
       <c r="B53" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E53" s="56"/>
       <c r="F53" s="56"/>
@@ -14420,11 +14436,11 @@
     <row r="54" spans="1:14" ht="15">
       <c r="A54" s="56"/>
       <c r="B54" s="55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C54" s="56"/>
       <c r="D54" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
@@ -14440,11 +14456,11 @@
     <row r="55" spans="1:14" ht="15">
       <c r="A55" s="56"/>
       <c r="B55" s="55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C55" s="56"/>
       <c r="D55" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
@@ -14460,11 +14476,11 @@
     <row r="56" spans="1:14" ht="15">
       <c r="A56" s="56"/>
       <c r="B56" s="55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C56" s="56"/>
       <c r="D56" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
@@ -14480,11 +14496,11 @@
     <row r="57" spans="1:14" ht="15">
       <c r="A57" s="56"/>
       <c r="B57" s="55" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C57" s="56"/>
       <c r="D57" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
@@ -14500,11 +14516,11 @@
     <row r="58" spans="1:14" ht="15">
       <c r="A58" s="56"/>
       <c r="B58" s="55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C58" s="56"/>
       <c r="D58" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E58" s="56"/>
       <c r="F58" s="56"/>
@@ -14520,11 +14536,11 @@
     <row r="59" spans="1:14" ht="15">
       <c r="A59" s="56"/>
       <c r="B59" s="55" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C59" s="56"/>
       <c r="D59" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E59" s="56"/>
       <c r="F59" s="56"/>
@@ -14540,11 +14556,11 @@
     <row r="60" spans="1:14" ht="15">
       <c r="A60" s="56"/>
       <c r="B60" s="55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C60" s="56"/>
       <c r="D60" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E60" s="56"/>
       <c r="F60" s="56"/>
